--- a/Arquivos e resultados/6 - Resultados/Analise 2 - Resultados Analise Manual por entidade.xlsx
+++ b/Arquivos e resultados/6 - Resultados/Analise 2 - Resultados Analise Manual por entidade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\TCC\TCC II - Everson Leonardi\Projeto\Dados\Resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\TCC\TCC II - Everson Leonardi\Projeto\ACI40\Arquivos e resultados\6 - Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B3005-3F1E-4A43-8408-7B721C34BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014165CA-D2B1-4983-8F4E-C204FF6CF56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4587113C-650A-4650-A84B-56030B700B15}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="348">
   <si>
     <t># Documento</t>
   </si>
@@ -1200,6 +1200,9 @@
   </si>
   <si>
     <t>Eficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1514,6 +1517,14 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,12 +1539,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1580,8 +1585,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -5798,36 +5801,36 @@
       <c r="B1" s="30"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="41" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="40" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
       <c r="Y1" s="29"/>
       <c r="Z1" s="29"/>
       <c r="AA1" s="29"/>
@@ -5913,18 +5916,18 @@
       <c r="X2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
       <c r="AI2" s="32" t="s">
         <v>331</v>
       </c>
@@ -5936,10 +5939,10 @@
       <c r="B3" s="13">
         <v>1.5894127166490089E+18</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="42">
         <v>1</v>
       </c>
       <c r="E3" s="8"/>
@@ -5979,8 +5982,8 @@
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -6016,10 +6019,10 @@
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="43">
         <v>1</v>
       </c>
       <c r="E5" s="9"/>
@@ -6071,8 +6074,8 @@
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -6149,10 +6152,10 @@
       <c r="B8" s="13">
         <v>1.5893207481242299E+18</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="42">
         <v>2</v>
       </c>
       <c r="E8" s="8"/>
@@ -6194,8 +6197,8 @@
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -6231,10 +6234,10 @@
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <v>1</v>
       </c>
       <c r="E10" s="9">
@@ -6286,8 +6289,8 @@
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -6364,10 +6367,10 @@
       <c r="B13" s="13">
         <v>1.5893074578764101E+18</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="42">
         <v>0</v>
       </c>
       <c r="E13" s="8"/>
@@ -6405,8 +6408,8 @@
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -6442,10 +6445,10 @@
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="43">
         <v>1</v>
       </c>
       <c r="E15" s="9"/>
@@ -6493,8 +6496,8 @@
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6571,10 +6574,10 @@
       <c r="B18" s="13">
         <v>1.5892639642229399E+18</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="42">
         <v>0</v>
       </c>
       <c r="E18" s="8"/>
@@ -6612,8 +6615,8 @@
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -6649,10 +6652,10 @@
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="43">
         <v>0</v>
       </c>
       <c r="E20" s="9"/>
@@ -6696,8 +6699,8 @@
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -6774,10 +6777,10 @@
       <c r="B23" s="13">
         <v>1.58915843331538E+18</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="42">
         <v>3</v>
       </c>
       <c r="E23" s="8"/>
@@ -6821,8 +6824,8 @@
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -6858,10 +6861,10 @@
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="43">
         <v>2</v>
       </c>
       <c r="E25" s="9">
@@ -6913,8 +6916,8 @@
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6991,10 +6994,10 @@
       <c r="B28" s="13">
         <v>1.5890600374477199E+18</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="42">
         <v>1</v>
       </c>
       <c r="E28" s="8"/>
@@ -7034,8 +7037,8 @@
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -7071,10 +7074,10 @@
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="43">
         <v>1</v>
       </c>
       <c r="E30" s="9">
@@ -7122,8 +7125,8 @@
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -7200,10 +7203,10 @@
       <c r="B33" s="13">
         <v>1.5888818654398799E+18</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="42">
         <v>0</v>
       </c>
       <c r="E33" s="8"/>
@@ -7241,8 +7244,8 @@
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -7278,10 +7281,10 @@
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="43">
         <v>0</v>
       </c>
       <c r="E35" s="9"/>
@@ -7325,8 +7328,8 @@
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -7403,10 +7406,10 @@
       <c r="B38" s="13">
         <v>1.58877033404351E+18</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="42">
         <v>3</v>
       </c>
       <c r="E38" s="8"/>
@@ -7450,8 +7453,8 @@
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -7487,10 +7490,10 @@
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="43">
         <v>3</v>
       </c>
       <c r="E40" s="9">
@@ -7542,8 +7545,8 @@
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7620,10 +7623,10 @@
       <c r="B43" s="13">
         <v>1.58863537620978E+18</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="42">
         <v>4</v>
       </c>
       <c r="E43" s="8"/>
@@ -7661,8 +7664,8 @@
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -7704,10 +7707,10 @@
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="43">
         <v>3</v>
       </c>
       <c r="E45" s="9">
@@ -7765,8 +7768,8 @@
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -7843,10 +7846,10 @@
       <c r="B48" s="13">
         <v>1.58862465029202E+18</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="42">
         <v>2</v>
       </c>
       <c r="E48" s="8"/>
@@ -7888,8 +7891,8 @@
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -7925,10 +7928,10 @@
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="45">
+      <c r="D50" s="43">
         <v>1</v>
       </c>
       <c r="E50" s="9">
@@ -7980,8 +7983,8 @@
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -8058,10 +8061,10 @@
       <c r="B53" s="13">
         <v>1.5886176281421701E+18</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="42">
         <v>0</v>
       </c>
       <c r="E53" s="8"/>
@@ -8099,8 +8102,8 @@
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -8136,10 +8139,10 @@
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="43">
         <v>2</v>
       </c>
       <c r="E55" s="9"/>
@@ -8189,8 +8192,8 @@
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -8267,10 +8270,10 @@
       <c r="B58" s="13">
         <v>1.5886064367367301E+18</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="46">
+      <c r="D58" s="42">
         <v>2</v>
       </c>
       <c r="E58" s="8"/>
@@ -8312,8 +8315,8 @@
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -8349,10 +8352,10 @@
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="43">
         <v>2</v>
       </c>
       <c r="E60" s="9">
@@ -8404,8 +8407,8 @@
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -8482,10 +8485,10 @@
       <c r="B63" s="13">
         <v>1.5885372987942899E+18</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="46">
+      <c r="D63" s="42">
         <v>3</v>
       </c>
       <c r="E63" s="8"/>
@@ -8529,8 +8532,8 @@
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -8566,10 +8569,10 @@
     <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="45">
+      <c r="D65" s="43">
         <v>4</v>
       </c>
       <c r="E65" s="9">
@@ -8623,8 +8626,8 @@
     <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -8701,10 +8704,10 @@
       <c r="B68" s="13">
         <v>1.5885349919314501E+18</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="46">
+      <c r="D68" s="42">
         <v>1</v>
       </c>
       <c r="E68" s="8"/>
@@ -8748,8 +8751,8 @@
     <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -8785,10 +8788,10 @@
     <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="45">
+      <c r="D70" s="43">
         <v>5</v>
       </c>
       <c r="E70" s="9">
@@ -8842,8 +8845,8 @@
     <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -8920,10 +8923,10 @@
       <c r="B73" s="13">
         <v>1.58850204062751E+18</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="46">
+      <c r="D73" s="42">
         <v>2</v>
       </c>
       <c r="E73" s="8"/>
@@ -8965,8 +8968,8 @@
     <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -9002,10 +9005,10 @@
     <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="45" t="s">
+      <c r="C75" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="45">
+      <c r="D75" s="43">
         <v>2</v>
       </c>
       <c r="E75" s="9">
@@ -9061,8 +9064,8 @@
     <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -9139,10 +9142,10 @@
       <c r="B78" s="13">
         <v>1.5884049620522519E+18</v>
       </c>
-      <c r="C78" s="46" t="s">
+      <c r="C78" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="46">
+      <c r="D78" s="42">
         <v>0</v>
       </c>
       <c r="E78" s="8"/>
@@ -9182,8 +9185,8 @@
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -9219,10 +9222,10 @@
     <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="45">
+      <c r="D80" s="43">
         <v>1</v>
       </c>
       <c r="E80" s="9"/>
@@ -9270,8 +9273,8 @@
     <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -9348,10 +9351,10 @@
       <c r="B83" s="13">
         <v>1.58837376774242E+18</v>
       </c>
-      <c r="C83" s="46" t="s">
+      <c r="C83" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="46">
+      <c r="D83" s="42">
         <v>2</v>
       </c>
       <c r="E83" s="8"/>
@@ -9393,8 +9396,8 @@
     <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -9430,10 +9433,10 @@
     <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="45" t="s">
+      <c r="C85" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="45">
+      <c r="D85" s="43">
         <v>3</v>
       </c>
       <c r="E85" s="9">
@@ -9487,8 +9490,8 @@
     <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -9565,10 +9568,10 @@
       <c r="B88" s="13">
         <v>1.58837216749391E+18</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="46">
+      <c r="D88" s="42">
         <v>1</v>
       </c>
       <c r="E88" s="8"/>
@@ -9608,8 +9611,8 @@
     <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -9645,10 +9648,10 @@
     <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="45" t="s">
+      <c r="C90" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="45">
+      <c r="D90" s="43">
         <v>1</v>
       </c>
       <c r="E90" s="9"/>
@@ -9700,8 +9703,8 @@
     <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -9778,10 +9781,10 @@
       <c r="B93" s="13">
         <v>1.58836264793378E+18</v>
       </c>
-      <c r="C93" s="46" t="s">
+      <c r="C93" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="46">
+      <c r="D93" s="42">
         <v>1</v>
       </c>
       <c r="E93" s="8"/>
@@ -9821,8 +9824,8 @@
     <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -9858,10 +9861,10 @@
     <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="45" t="s">
+      <c r="C95" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="45">
+      <c r="D95" s="43">
         <v>1</v>
       </c>
       <c r="E95" s="9">
@@ -9909,8 +9912,8 @@
     <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -9987,10 +9990,10 @@
       <c r="B98" s="13">
         <v>1.58829824708418E+18</v>
       </c>
-      <c r="C98" s="46" t="s">
+      <c r="C98" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="46">
+      <c r="D98" s="42">
         <v>1</v>
       </c>
       <c r="E98" s="8"/>
@@ -10030,8 +10033,8 @@
     <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="13"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -10067,10 +10070,10 @@
     <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="45" t="s">
+      <c r="C100" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="45">
+      <c r="D100" s="43">
         <v>2</v>
       </c>
       <c r="E100" s="9">
@@ -10122,8 +10125,8 @@
     <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -10200,10 +10203,10 @@
       <c r="B103" s="13">
         <v>1.5882817132175401E+18</v>
       </c>
-      <c r="C103" s="46" t="s">
+      <c r="C103" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="46">
+      <c r="D103" s="42">
         <v>1</v>
       </c>
       <c r="E103" s="8"/>
@@ -10245,8 +10248,8 @@
     <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -10282,10 +10285,10 @@
     <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="45" t="s">
+      <c r="C105" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D105" s="45">
+      <c r="D105" s="43">
         <v>0</v>
       </c>
       <c r="E105" s="9"/>
@@ -10335,8 +10338,8 @@
     <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -10413,10 +10416,10 @@
       <c r="B108" s="13">
         <v>1.5882748391602501E+18</v>
       </c>
-      <c r="C108" s="46" t="s">
+      <c r="C108" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="46">
+      <c r="D108" s="42">
         <v>2</v>
       </c>
       <c r="E108" s="8"/>
@@ -10458,8 +10461,8 @@
     <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="13"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="46"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -10495,10 +10498,10 @@
     <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="45" t="s">
+      <c r="C110" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="45">
+      <c r="D110" s="43">
         <v>2</v>
       </c>
       <c r="E110" s="9">
@@ -10546,8 +10549,8 @@
     <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
@@ -10624,10 +10627,10 @@
       <c r="B113" s="13">
         <v>1.58823948655487E+18</v>
       </c>
-      <c r="C113" s="46" t="s">
+      <c r="C113" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D113" s="46">
+      <c r="D113" s="42">
         <v>2</v>
       </c>
       <c r="E113" s="8"/>
@@ -10669,8 +10672,8 @@
     <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="13"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="46"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -10706,10 +10709,10 @@
     <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="45" t="s">
+      <c r="C115" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="45">
+      <c r="D115" s="43">
         <v>2</v>
       </c>
       <c r="E115" s="9">
@@ -10757,8 +10760,8 @@
     <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -10835,10 +10838,10 @@
       <c r="B118" s="13">
         <v>1.588238979790688E+18</v>
       </c>
-      <c r="C118" s="46" t="s">
+      <c r="C118" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="46">
+      <c r="D118" s="42">
         <v>2</v>
       </c>
       <c r="E118" s="8"/>
@@ -10880,8 +10883,8 @@
     <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="13"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="46"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="42"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
@@ -10917,10 +10920,10 @@
     <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="45" t="s">
+      <c r="C120" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="45">
+      <c r="D120" s="43">
         <v>2</v>
       </c>
       <c r="E120" s="9">
@@ -10976,8 +10979,8 @@
     <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="14"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -11054,10 +11057,10 @@
       <c r="B123" s="13">
         <v>1.5882368137302021E+18</v>
       </c>
-      <c r="C123" s="46" t="s">
+      <c r="C123" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="46">
+      <c r="D123" s="42">
         <v>3</v>
       </c>
       <c r="E123" s="8"/>
@@ -11099,8 +11102,8 @@
     <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="13"/>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
@@ -11136,10 +11139,10 @@
     <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="45" t="s">
+      <c r="C125" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="45">
+      <c r="D125" s="43">
         <v>2</v>
       </c>
       <c r="E125" s="9">
@@ -11187,8 +11190,8 @@
     <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
@@ -11265,10 +11268,10 @@
       <c r="B128" s="13">
         <v>1.58823406586974E+18</v>
       </c>
-      <c r="C128" s="46" t="s">
+      <c r="C128" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="46">
+      <c r="D128" s="42">
         <v>3</v>
       </c>
       <c r="E128" s="8"/>
@@ -11312,8 +11315,8 @@
     <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="13"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="42"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
@@ -11349,10 +11352,10 @@
     <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="45" t="s">
+      <c r="C130" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="45">
+      <c r="D130" s="43">
         <v>2</v>
       </c>
       <c r="E130" s="9">
@@ -11406,8 +11409,8 @@
     <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="14"/>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -11484,10 +11487,10 @@
       <c r="B133" s="13">
         <v>1.5882333746778399E+18</v>
       </c>
-      <c r="C133" s="46" t="s">
+      <c r="C133" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="46">
+      <c r="D133" s="42">
         <v>2</v>
       </c>
       <c r="E133" s="8"/>
@@ -11529,8 +11532,8 @@
     <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="13"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
@@ -11566,10 +11569,10 @@
     <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="14"/>
-      <c r="C135" s="45" t="s">
+      <c r="C135" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D135" s="45">
+      <c r="D135" s="43">
         <v>2</v>
       </c>
       <c r="E135" s="9">
@@ -11617,8 +11620,8 @@
     <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
@@ -11695,10 +11698,10 @@
       <c r="B138" s="13">
         <v>1.58821810475646E+18</v>
       </c>
-      <c r="C138" s="46" t="s">
+      <c r="C138" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D138" s="46">
+      <c r="D138" s="42">
         <v>1</v>
       </c>
       <c r="E138" s="8"/>
@@ -11740,8 +11743,8 @@
     <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="13"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="46"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
@@ -11777,10 +11780,10 @@
     <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="45" t="s">
+      <c r="C140" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="45">
+      <c r="D140" s="43">
         <v>1</v>
       </c>
       <c r="E140" s="9">
@@ -11832,8 +11835,8 @@
     <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="14"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
@@ -11910,10 +11913,10 @@
       <c r="B143" s="13">
         <v>1.5882130067477199E+18</v>
       </c>
-      <c r="C143" s="46" t="s">
+      <c r="C143" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="46">
+      <c r="D143" s="42">
         <v>2</v>
       </c>
       <c r="E143" s="8"/>
@@ -11957,8 +11960,8 @@
     <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="13"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="46"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="42"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
@@ -11994,10 +11997,10 @@
     <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="14"/>
-      <c r="C145" s="45" t="s">
+      <c r="C145" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="45">
+      <c r="D145" s="43">
         <v>2</v>
       </c>
       <c r="E145" s="9">
@@ -12045,8 +12048,8 @@
     <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="14"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="45"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
@@ -12123,10 +12126,10 @@
       <c r="B148" s="13">
         <v>1.5881853841729001E+18</v>
       </c>
-      <c r="C148" s="46" t="s">
+      <c r="C148" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="46">
+      <c r="D148" s="42">
         <v>3</v>
       </c>
       <c r="E148" s="8"/>
@@ -12170,8 +12173,8 @@
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="13"/>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
@@ -12207,10 +12210,10 @@
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="14"/>
-      <c r="C150" s="45" t="s">
+      <c r="C150" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D150" s="45">
+      <c r="D150" s="43">
         <v>2</v>
       </c>
       <c r="E150" s="9">
@@ -12257,8 +12260,8 @@
     <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="14"/>
-      <c r="C151" s="45"/>
-      <c r="D151" s="45"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="43"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
@@ -12335,10 +12338,10 @@
       <c r="B153" s="13">
         <v>1.5881720572460611E+18</v>
       </c>
-      <c r="C153" s="46" t="s">
+      <c r="C153" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="46">
+      <c r="D153" s="42">
         <v>0</v>
       </c>
       <c r="E153" s="8"/>
@@ -12376,8 +12379,8 @@
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="13"/>
-      <c r="C154" s="46"/>
-      <c r="D154" s="46"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
@@ -12413,10 +12416,10 @@
     <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="45" t="s">
+      <c r="C155" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D155" s="45">
+      <c r="D155" s="43">
         <v>0</v>
       </c>
       <c r="E155" s="9"/>
@@ -12460,8 +12463,8 @@
     <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="14"/>
-      <c r="C156" s="45"/>
-      <c r="D156" s="45"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="43"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
@@ -12538,10 +12541,10 @@
       <c r="B158" s="13">
         <v>1.58817182351808E+18</v>
       </c>
-      <c r="C158" s="46" t="s">
+      <c r="C158" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="46">
+      <c r="D158" s="42">
         <v>0</v>
       </c>
       <c r="E158" s="8"/>
@@ -12579,8 +12582,8 @@
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="13"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="46"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="42"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
@@ -12616,10 +12619,10 @@
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="14"/>
-      <c r="C160" s="45" t="s">
+      <c r="C160" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="45">
+      <c r="D160" s="43">
         <v>0</v>
       </c>
       <c r="E160" s="9"/>
@@ -12663,8 +12666,8 @@
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="14"/>
-      <c r="C161" s="45"/>
-      <c r="D161" s="45"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -12741,10 +12744,10 @@
       <c r="B163" s="13">
         <v>1.5881438496455099E+18</v>
       </c>
-      <c r="C163" s="46" t="s">
+      <c r="C163" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D163" s="46">
+      <c r="D163" s="42">
         <v>2</v>
       </c>
       <c r="E163" s="8"/>
@@ -12786,8 +12789,8 @@
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="13"/>
-      <c r="C164" s="46"/>
-      <c r="D164" s="46"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
@@ -12823,10 +12826,10 @@
     <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="14"/>
-      <c r="C165" s="45" t="s">
+      <c r="C165" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D165" s="45">
+      <c r="D165" s="43">
         <v>3</v>
       </c>
       <c r="E165" s="9">
@@ -12874,8 +12877,8 @@
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="14"/>
-      <c r="C166" s="45"/>
-      <c r="D166" s="45"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="43"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -12952,10 +12955,10 @@
       <c r="B168" s="13">
         <v>1.5881427175653E+18</v>
       </c>
-      <c r="C168" s="46" t="s">
+      <c r="C168" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D168" s="46">
+      <c r="D168" s="42">
         <v>4</v>
       </c>
       <c r="E168" s="8"/>
@@ -13001,8 +13004,8 @@
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="13"/>
-      <c r="C169" s="46"/>
-      <c r="D169" s="46"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
@@ -13038,10 +13041,10 @@
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="45" t="s">
+      <c r="C170" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D170" s="45">
+      <c r="D170" s="43">
         <v>4</v>
       </c>
       <c r="E170" s="9">
@@ -13089,8 +13092,8 @@
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="45"/>
-      <c r="D171" s="45"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="43"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
@@ -13167,10 +13170,10 @@
       <c r="B173" s="13">
         <v>1.58811940084174E+18</v>
       </c>
-      <c r="C173" s="46" t="s">
+      <c r="C173" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D173" s="46">
+      <c r="D173" s="42">
         <v>2</v>
       </c>
       <c r="E173" s="8"/>
@@ -13216,8 +13219,8 @@
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="13"/>
-      <c r="C174" s="46"/>
-      <c r="D174" s="46"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="42"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
@@ -13253,10 +13256,10 @@
     <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="14"/>
-      <c r="C175" s="45" t="s">
+      <c r="C175" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D175" s="45">
+      <c r="D175" s="43">
         <v>4</v>
       </c>
       <c r="E175" s="9">
@@ -13306,8 +13309,8 @@
     <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="14"/>
-      <c r="C176" s="45"/>
-      <c r="D176" s="45"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="43"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
@@ -13384,10 +13387,10 @@
       <c r="B178" s="13">
         <v>1.5880786725856599E+18</v>
       </c>
-      <c r="C178" s="46" t="s">
+      <c r="C178" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D178" s="46">
+      <c r="D178" s="42">
         <v>0</v>
       </c>
       <c r="E178" s="8"/>
@@ -13425,8 +13428,8 @@
     <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="13"/>
-      <c r="C179" s="46"/>
-      <c r="D179" s="46"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="42"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
@@ -13462,10 +13465,10 @@
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="45" t="s">
+      <c r="C180" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D180" s="45">
+      <c r="D180" s="43">
         <v>3</v>
       </c>
       <c r="E180" s="9"/>
@@ -13515,8 +13518,8 @@
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="14"/>
-      <c r="C181" s="45"/>
-      <c r="D181" s="45"/>
+      <c r="C181" s="43"/>
+      <c r="D181" s="43"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
@@ -13593,10 +13596,10 @@
       <c r="B183" s="13">
         <v>1.5880480753307699E+18</v>
       </c>
-      <c r="C183" s="46" t="s">
+      <c r="C183" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="46">
+      <c r="D183" s="42">
         <v>2</v>
       </c>
       <c r="E183" s="8"/>
@@ -13638,8 +13641,8 @@
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="13"/>
-      <c r="C184" s="46"/>
-      <c r="D184" s="46"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="42"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
@@ -13675,10 +13678,10 @@
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="14"/>
-      <c r="C185" s="45" t="s">
+      <c r="C185" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D185" s="45">
+      <c r="D185" s="43">
         <v>2</v>
       </c>
       <c r="E185" s="9">
@@ -13728,8 +13731,8 @@
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="14"/>
-      <c r="C186" s="45"/>
-      <c r="D186" s="45"/>
+      <c r="C186" s="43"/>
+      <c r="D186" s="43"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -13806,10 +13809,10 @@
       <c r="B188" s="13">
         <v>1.58799246073038E+18</v>
       </c>
-      <c r="C188" s="46" t="s">
+      <c r="C188" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="46">
+      <c r="D188" s="42">
         <v>0</v>
       </c>
       <c r="E188" s="8"/>
@@ -13847,8 +13850,8 @@
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="13"/>
-      <c r="C189" s="46"/>
-      <c r="D189" s="46"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="42"/>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
@@ -13884,10 +13887,10 @@
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="14"/>
-      <c r="C190" s="45" t="s">
+      <c r="C190" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D190" s="45">
+      <c r="D190" s="43">
         <v>0</v>
       </c>
       <c r="E190" s="9"/>
@@ -13931,8 +13934,8 @@
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="14"/>
-      <c r="C191" s="45"/>
-      <c r="D191" s="45"/>
+      <c r="C191" s="43"/>
+      <c r="D191" s="43"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
@@ -14009,10 +14012,10 @@
       <c r="B193" s="13">
         <v>1.58799075004608E+18</v>
       </c>
-      <c r="C193" s="46" t="s">
+      <c r="C193" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D193" s="46">
+      <c r="D193" s="42">
         <v>0</v>
       </c>
       <c r="E193" s="8"/>
@@ -14050,8 +14053,8 @@
     <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="13"/>
-      <c r="C194" s="46"/>
-      <c r="D194" s="46"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="42"/>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
@@ -14087,10 +14090,10 @@
     <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="14"/>
-      <c r="C195" s="45" t="s">
+      <c r="C195" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D195" s="45">
+      <c r="D195" s="43">
         <v>0</v>
       </c>
       <c r="E195" s="9"/>
@@ -14134,8 +14137,8 @@
     <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="14"/>
-      <c r="C196" s="45"/>
-      <c r="D196" s="45"/>
+      <c r="C196" s="43"/>
+      <c r="D196" s="43"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
@@ -14212,10 +14215,10 @@
       <c r="B198" s="13">
         <v>1.5879880638668201E+18</v>
       </c>
-      <c r="C198" s="46" t="s">
+      <c r="C198" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D198" s="46">
+      <c r="D198" s="42">
         <v>1</v>
       </c>
       <c r="E198" s="8"/>
@@ -14255,8 +14258,8 @@
     <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="13"/>
-      <c r="C199" s="46"/>
-      <c r="D199" s="46"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="42"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
@@ -14292,10 +14295,10 @@
     <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="14"/>
-      <c r="C200" s="45" t="s">
+      <c r="C200" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D200" s="45">
+      <c r="D200" s="43">
         <v>0</v>
       </c>
       <c r="E200" s="9"/>
@@ -14343,8 +14346,8 @@
     <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="14"/>
-      <c r="C201" s="45"/>
-      <c r="D201" s="45"/>
+      <c r="C201" s="43"/>
+      <c r="D201" s="43"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
@@ -14421,10 +14424,10 @@
       <c r="B203" s="13">
         <v>1.5879255137878001E+18</v>
       </c>
-      <c r="C203" s="46" t="s">
+      <c r="C203" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D203" s="46">
+      <c r="D203" s="42">
         <v>1</v>
       </c>
       <c r="E203" s="8"/>
@@ -14464,8 +14467,8 @@
     <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="13"/>
-      <c r="C204" s="46"/>
-      <c r="D204" s="46"/>
+      <c r="C204" s="42"/>
+      <c r="D204" s="42"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
@@ -14501,10 +14504,10 @@
     <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="14"/>
-      <c r="C205" s="45" t="s">
+      <c r="C205" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D205" s="45">
+      <c r="D205" s="43">
         <v>0</v>
       </c>
       <c r="E205" s="9"/>
@@ -14552,8 +14555,8 @@
     <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="14"/>
-      <c r="C206" s="45"/>
-      <c r="D206" s="45"/>
+      <c r="C206" s="43"/>
+      <c r="D206" s="43"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
@@ -14630,10 +14633,10 @@
       <c r="B208" s="13">
         <v>1.5879134950642199E+18</v>
       </c>
-      <c r="C208" s="46" t="s">
+      <c r="C208" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D208" s="46">
+      <c r="D208" s="42">
         <v>2</v>
       </c>
       <c r="E208" s="8"/>
@@ -14675,8 +14678,8 @@
     <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="13"/>
-      <c r="C209" s="46"/>
-      <c r="D209" s="46"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="42"/>
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
@@ -14712,10 +14715,10 @@
     <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="14"/>
-      <c r="C210" s="45" t="s">
+      <c r="C210" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D210" s="45">
+      <c r="D210" s="43">
         <v>0</v>
       </c>
       <c r="E210" s="9"/>
@@ -14765,8 +14768,8 @@
     <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="14"/>
-      <c r="C211" s="45"/>
-      <c r="D211" s="45"/>
+      <c r="C211" s="43"/>
+      <c r="D211" s="43"/>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
@@ -14843,10 +14846,10 @@
       <c r="B213" s="13">
         <v>1.5878597141546701E+18</v>
       </c>
-      <c r="C213" s="46" t="s">
+      <c r="C213" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D213" s="46">
+      <c r="D213" s="42">
         <v>4</v>
       </c>
       <c r="E213" s="8"/>
@@ -14892,8 +14895,8 @@
     <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="13"/>
-      <c r="C214" s="46"/>
-      <c r="D214" s="46"/>
+      <c r="C214" s="42"/>
+      <c r="D214" s="42"/>
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
@@ -14929,10 +14932,10 @@
     <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="14"/>
-      <c r="C215" s="45" t="s">
+      <c r="C215" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D215" s="45">
+      <c r="D215" s="43">
         <v>4</v>
       </c>
       <c r="E215" s="9">
@@ -14982,8 +14985,8 @@
     <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="14"/>
-      <c r="C216" s="45"/>
-      <c r="D216" s="45"/>
+      <c r="C216" s="43"/>
+      <c r="D216" s="43"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
@@ -15060,10 +15063,10 @@
       <c r="B218" s="13">
         <v>1.5878566254817999E+18</v>
       </c>
-      <c r="C218" s="46" t="s">
+      <c r="C218" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D218" s="46">
+      <c r="D218" s="42">
         <v>1</v>
       </c>
       <c r="E218" s="8"/>
@@ -15103,8 +15106,8 @@
     <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="13"/>
-      <c r="C219" s="46"/>
-      <c r="D219" s="46"/>
+      <c r="C219" s="42"/>
+      <c r="D219" s="42"/>
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
@@ -15140,10 +15143,10 @@
     <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="14"/>
-      <c r="C220" s="45" t="s">
+      <c r="C220" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D220" s="45">
+      <c r="D220" s="43">
         <v>1</v>
       </c>
       <c r="E220" s="9">
@@ -15191,8 +15194,8 @@
     <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="14"/>
-      <c r="C221" s="45"/>
-      <c r="D221" s="45"/>
+      <c r="C221" s="43"/>
+      <c r="D221" s="43"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
@@ -15269,10 +15272,10 @@
       <c r="B223" s="13">
         <v>1.587842478459306E+18</v>
       </c>
-      <c r="C223" s="46" t="s">
+      <c r="C223" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D223" s="46">
+      <c r="D223" s="42">
         <v>3</v>
       </c>
       <c r="E223" s="8"/>
@@ -15316,8 +15319,8 @@
     <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="13"/>
-      <c r="C224" s="46"/>
-      <c r="D224" s="46"/>
+      <c r="C224" s="42"/>
+      <c r="D224" s="42"/>
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
@@ -15353,10 +15356,10 @@
     <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="14"/>
-      <c r="C225" s="45" t="s">
+      <c r="C225" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D225" s="45">
+      <c r="D225" s="43">
         <v>4</v>
       </c>
       <c r="E225" s="9">
@@ -15410,8 +15413,8 @@
     <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="14"/>
-      <c r="C226" s="45"/>
-      <c r="D226" s="45"/>
+      <c r="C226" s="43"/>
+      <c r="D226" s="43"/>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
@@ -15488,10 +15491,10 @@
       <c r="B228" s="13">
         <v>1.5878366259497001E+18</v>
       </c>
-      <c r="C228" s="46" t="s">
+      <c r="C228" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D228" s="46">
+      <c r="D228" s="42">
         <v>1</v>
       </c>
       <c r="E228" s="8"/>
@@ -15531,8 +15534,8 @@
     <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="13"/>
-      <c r="C229" s="46"/>
-      <c r="D229" s="46"/>
+      <c r="C229" s="42"/>
+      <c r="D229" s="42"/>
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
@@ -15568,10 +15571,10 @@
     <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="14"/>
-      <c r="C230" s="45" t="s">
+      <c r="C230" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D230" s="45">
+      <c r="D230" s="43">
         <v>2</v>
       </c>
       <c r="E230" s="9">
@@ -15623,8 +15626,8 @@
     <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="14"/>
-      <c r="C231" s="45"/>
-      <c r="D231" s="45"/>
+      <c r="C231" s="43"/>
+      <c r="D231" s="43"/>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
@@ -15701,10 +15704,10 @@
       <c r="B233" s="13">
         <v>1.5878137856410619E+18</v>
       </c>
-      <c r="C233" s="46" t="s">
+      <c r="C233" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D233" s="46">
+      <c r="D233" s="42">
         <v>2</v>
       </c>
       <c r="E233" s="8"/>
@@ -15746,8 +15749,8 @@
     <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="13"/>
-      <c r="C234" s="46"/>
-      <c r="D234" s="46"/>
+      <c r="C234" s="42"/>
+      <c r="D234" s="42"/>
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
       <c r="G234" s="8"/>
@@ -15783,10 +15786,10 @@
     <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="14"/>
-      <c r="C235" s="45" t="s">
+      <c r="C235" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D235" s="45">
+      <c r="D235" s="43">
         <v>0</v>
       </c>
       <c r="E235" s="9"/>
@@ -15836,8 +15839,8 @@
     <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="14"/>
-      <c r="C236" s="45"/>
-      <c r="D236" s="45"/>
+      <c r="C236" s="43"/>
+      <c r="D236" s="43"/>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
@@ -15914,10 +15917,10 @@
       <c r="B238" s="13">
         <v>1.5877246819221089E+18</v>
       </c>
-      <c r="C238" s="46" t="s">
+      <c r="C238" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D238" s="46">
+      <c r="D238" s="42">
         <v>2</v>
       </c>
       <c r="E238" s="8"/>
@@ -15959,8 +15962,8 @@
     <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="13"/>
-      <c r="C239" s="46"/>
-      <c r="D239" s="46"/>
+      <c r="C239" s="42"/>
+      <c r="D239" s="42"/>
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
@@ -15996,10 +15999,10 @@
     <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="14"/>
-      <c r="C240" s="45" t="s">
+      <c r="C240" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D240" s="45">
+      <c r="D240" s="43">
         <v>3</v>
       </c>
       <c r="E240" s="9">
@@ -16053,8 +16056,8 @@
     <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="14"/>
-      <c r="C241" s="45"/>
-      <c r="D241" s="45"/>
+      <c r="C241" s="43"/>
+      <c r="D241" s="43"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
@@ -16131,10 +16134,10 @@
       <c r="B243" s="13">
         <v>1.5877163368678359E+18</v>
       </c>
-      <c r="C243" s="46" t="s">
+      <c r="C243" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="46">
+      <c r="D243" s="42">
         <v>0</v>
       </c>
       <c r="E243" s="8"/>
@@ -16172,8 +16175,8 @@
     <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="13"/>
-      <c r="C244" s="46"/>
-      <c r="D244" s="46"/>
+      <c r="C244" s="42"/>
+      <c r="D244" s="42"/>
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
       <c r="G244" s="8"/>
@@ -16209,10 +16212,10 @@
     <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="14"/>
-      <c r="C245" s="45" t="s">
+      <c r="C245" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D245" s="45">
+      <c r="D245" s="43">
         <v>1</v>
       </c>
       <c r="E245" s="9">
@@ -16260,8 +16263,8 @@
     <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="14"/>
-      <c r="C246" s="45"/>
-      <c r="D246" s="45"/>
+      <c r="C246" s="43"/>
+      <c r="D246" s="43"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
@@ -16338,10 +16341,10 @@
       <c r="B248" s="13">
         <v>1.5876683235836229E+18</v>
       </c>
-      <c r="C248" s="46" t="s">
+      <c r="C248" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D248" s="46">
+      <c r="D248" s="42">
         <v>5</v>
       </c>
       <c r="E248" s="8"/>
@@ -16389,8 +16392,8 @@
     <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="13"/>
-      <c r="C249" s="46"/>
-      <c r="D249" s="46"/>
+      <c r="C249" s="42"/>
+      <c r="D249" s="42"/>
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
       <c r="G249" s="8"/>
@@ -16426,10 +16429,10 @@
     <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="14"/>
-      <c r="C250" s="45" t="s">
+      <c r="C250" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D250" s="45">
+      <c r="D250" s="43">
         <v>3</v>
       </c>
       <c r="E250" s="9">
@@ -16487,8 +16490,8 @@
     <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="14"/>
-      <c r="C251" s="45"/>
-      <c r="D251" s="45"/>
+      <c r="C251" s="43"/>
+      <c r="D251" s="43"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
@@ -16565,10 +16568,10 @@
       <c r="B253" s="13">
         <v>1.587665615858569E+18</v>
       </c>
-      <c r="C253" s="46" t="s">
+      <c r="C253" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D253" s="46">
+      <c r="D253" s="42">
         <v>1</v>
       </c>
       <c r="E253" s="8"/>
@@ -16608,8 +16611,8 @@
     <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="13"/>
-      <c r="C254" s="46"/>
-      <c r="D254" s="46"/>
+      <c r="C254" s="42"/>
+      <c r="D254" s="42"/>
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
@@ -16645,10 +16648,10 @@
     <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="14"/>
-      <c r="C255" s="45" t="s">
+      <c r="C255" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D255" s="45">
+      <c r="D255" s="43">
         <v>3</v>
       </c>
       <c r="E255" s="9">
@@ -16700,8 +16703,8 @@
     <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="14"/>
-      <c r="C256" s="45"/>
-      <c r="D256" s="45"/>
+      <c r="C256" s="43"/>
+      <c r="D256" s="43"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
@@ -16778,10 +16781,10 @@
       <c r="B258" s="13">
         <v>1.5875200677507479E+18</v>
       </c>
-      <c r="C258" s="46" t="s">
+      <c r="C258" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D258" s="46">
+      <c r="D258" s="42">
         <v>0</v>
       </c>
       <c r="E258" s="8"/>
@@ -16819,8 +16822,8 @@
     <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="13"/>
-      <c r="C259" s="46"/>
-      <c r="D259" s="46"/>
+      <c r="C259" s="42"/>
+      <c r="D259" s="42"/>
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
       <c r="G259" s="8"/>
@@ -16856,10 +16859,10 @@
     <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="14"/>
-      <c r="C260" s="45" t="s">
+      <c r="C260" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D260" s="45">
+      <c r="D260" s="43">
         <v>2</v>
       </c>
       <c r="E260" s="9"/>
@@ -16909,8 +16912,8 @@
     <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="14"/>
-      <c r="C261" s="45"/>
-      <c r="D261" s="45"/>
+      <c r="C261" s="43"/>
+      <c r="D261" s="43"/>
       <c r="E261" s="9"/>
       <c r="F261" s="9"/>
       <c r="G261" s="9"/>
@@ -16987,10 +16990,10 @@
       <c r="B263" s="13">
         <v>1.587479610811351E+18</v>
       </c>
-      <c r="C263" s="46" t="s">
+      <c r="C263" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="46">
+      <c r="D263" s="42">
         <v>2</v>
       </c>
       <c r="E263" s="8"/>
@@ -17030,8 +17033,8 @@
     <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="13"/>
-      <c r="C264" s="46"/>
-      <c r="D264" s="46"/>
+      <c r="C264" s="42"/>
+      <c r="D264" s="42"/>
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
       <c r="G264" s="8"/>
@@ -17067,10 +17070,10 @@
     <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="14"/>
-      <c r="C265" s="45" t="s">
+      <c r="C265" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D265" s="45">
+      <c r="D265" s="43">
         <v>2</v>
       </c>
       <c r="E265" s="9"/>
@@ -17122,8 +17125,8 @@
     <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="14"/>
-      <c r="C266" s="45"/>
-      <c r="D266" s="45"/>
+      <c r="C266" s="43"/>
+      <c r="D266" s="43"/>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
       <c r="G266" s="9"/>
@@ -17200,10 +17203,10 @@
       <c r="B268" s="13">
         <v>1.5874289956368919E+18</v>
       </c>
-      <c r="C268" s="46" t="s">
+      <c r="C268" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D268" s="46">
+      <c r="D268" s="42">
         <v>1</v>
       </c>
       <c r="E268" s="8"/>
@@ -17243,8 +17246,8 @@
     <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="13"/>
-      <c r="C269" s="46"/>
-      <c r="D269" s="46"/>
+      <c r="C269" s="42"/>
+      <c r="D269" s="42"/>
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
       <c r="G269" s="8"/>
@@ -17280,10 +17283,10 @@
     <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="14"/>
-      <c r="C270" s="45" t="s">
+      <c r="C270" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D270" s="45">
+      <c r="D270" s="43">
         <v>2</v>
       </c>
       <c r="E270" s="9">
@@ -17333,8 +17336,8 @@
     <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="14"/>
-      <c r="C271" s="45"/>
-      <c r="D271" s="45"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="43"/>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
       <c r="G271" s="9"/>
@@ -17411,10 +17414,10 @@
       <c r="B273" s="13">
         <v>1.5874103731702369E+18</v>
       </c>
-      <c r="C273" s="46" t="s">
+      <c r="C273" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D273" s="46">
+      <c r="D273" s="42">
         <v>1</v>
       </c>
       <c r="E273" s="8"/>
@@ -17454,8 +17457,8 @@
     <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="13"/>
-      <c r="C274" s="46"/>
-      <c r="D274" s="46"/>
+      <c r="C274" s="42"/>
+      <c r="D274" s="42"/>
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
       <c r="G274" s="8"/>
@@ -17491,10 +17494,10 @@
     <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="14"/>
-      <c r="C275" s="45" t="s">
+      <c r="C275" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D275" s="45">
+      <c r="D275" s="43">
         <v>1</v>
       </c>
       <c r="E275" s="9"/>
@@ -17542,8 +17545,8 @@
     <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="14"/>
-      <c r="C276" s="45"/>
-      <c r="D276" s="45"/>
+      <c r="C276" s="43"/>
+      <c r="D276" s="43"/>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
       <c r="G276" s="9"/>
@@ -17620,10 +17623,10 @@
       <c r="B278" s="13">
         <v>1.5873811807724129E+18</v>
       </c>
-      <c r="C278" s="46" t="s">
+      <c r="C278" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D278" s="46">
+      <c r="D278" s="42">
         <v>0</v>
       </c>
       <c r="E278" s="8"/>
@@ -17661,8 +17664,8 @@
     <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="13"/>
-      <c r="C279" s="46"/>
-      <c r="D279" s="46"/>
+      <c r="C279" s="42"/>
+      <c r="D279" s="42"/>
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
       <c r="G279" s="8"/>
@@ -17698,10 +17701,10 @@
     <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="14"/>
-      <c r="C280" s="45" t="s">
+      <c r="C280" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D280" s="45">
+      <c r="D280" s="43">
         <v>0</v>
       </c>
       <c r="E280" s="9"/>
@@ -17745,8 +17748,8 @@
     <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="14"/>
-      <c r="C281" s="45"/>
-      <c r="D281" s="45"/>
+      <c r="C281" s="43"/>
+      <c r="D281" s="43"/>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="9"/>
@@ -17823,10 +17826,10 @@
       <c r="B283" s="13">
         <v>1.5871808357944069E+18</v>
       </c>
-      <c r="C283" s="46" t="s">
+      <c r="C283" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D283" s="46">
+      <c r="D283" s="42">
         <v>1</v>
       </c>
       <c r="E283" s="8"/>
@@ -17866,8 +17869,8 @@
     <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="13"/>
-      <c r="C284" s="46"/>
-      <c r="D284" s="46"/>
+      <c r="C284" s="42"/>
+      <c r="D284" s="42"/>
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
       <c r="G284" s="8"/>
@@ -17903,10 +17906,10 @@
     <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="14"/>
-      <c r="C285" s="45" t="s">
+      <c r="C285" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D285" s="45">
+      <c r="D285" s="43">
         <v>1</v>
       </c>
       <c r="E285" s="9">
@@ -17954,8 +17957,8 @@
     <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="14"/>
-      <c r="C286" s="45"/>
-      <c r="D286" s="45"/>
+      <c r="C286" s="43"/>
+      <c r="D286" s="43"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="9"/>
@@ -18032,10 +18035,10 @@
       <c r="B288" s="13">
         <v>1.5871609877355561E+18</v>
       </c>
-      <c r="C288" s="46" t="s">
+      <c r="C288" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D288" s="46">
+      <c r="D288" s="42">
         <v>0</v>
       </c>
       <c r="E288" s="8"/>
@@ -18073,8 +18076,8 @@
     <row r="289" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="13"/>
-      <c r="C289" s="46"/>
-      <c r="D289" s="46"/>
+      <c r="C289" s="42"/>
+      <c r="D289" s="42"/>
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
       <c r="G289" s="8"/>
@@ -18110,10 +18113,10 @@
     <row r="290" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="14"/>
-      <c r="C290" s="45" t="s">
+      <c r="C290" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D290" s="45">
+      <c r="D290" s="43">
         <v>2</v>
       </c>
       <c r="E290" s="9"/>
@@ -18161,8 +18164,8 @@
     <row r="291" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="14"/>
-      <c r="C291" s="45"/>
-      <c r="D291" s="45"/>
+      <c r="C291" s="43"/>
+      <c r="D291" s="43"/>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
       <c r="G291" s="9"/>
@@ -18239,10 +18242,10 @@
       <c r="B293" s="13">
         <v>1.587078184188535E+18</v>
       </c>
-      <c r="C293" s="46" t="s">
+      <c r="C293" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D293" s="46">
+      <c r="D293" s="42">
         <v>0</v>
       </c>
       <c r="E293" s="8"/>
@@ -18280,8 +18283,8 @@
     <row r="294" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="13"/>
-      <c r="C294" s="46"/>
-      <c r="D294" s="46"/>
+      <c r="C294" s="42"/>
+      <c r="D294" s="42"/>
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
       <c r="G294" s="8"/>
@@ -18317,10 +18320,10 @@
     <row r="295" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="14"/>
-      <c r="C295" s="45" t="s">
+      <c r="C295" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D295" s="45">
+      <c r="D295" s="43">
         <v>1</v>
       </c>
       <c r="E295" s="9"/>
@@ -18368,8 +18371,8 @@
     <row r="296" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="14"/>
-      <c r="C296" s="45"/>
-      <c r="D296" s="45"/>
+      <c r="C296" s="43"/>
+      <c r="D296" s="43"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="9"/>
@@ -18446,10 +18449,10 @@
       <c r="B298" s="13">
         <v>1.587066099954229E+18</v>
       </c>
-      <c r="C298" s="46" t="s">
+      <c r="C298" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D298" s="46">
+      <c r="D298" s="42">
         <v>1</v>
       </c>
       <c r="E298" s="8"/>
@@ -18491,8 +18494,8 @@
     <row r="299" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="13"/>
-      <c r="C299" s="46"/>
-      <c r="D299" s="46"/>
+      <c r="C299" s="42"/>
+      <c r="D299" s="42"/>
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
       <c r="G299" s="8"/>
@@ -18528,10 +18531,10 @@
     <row r="300" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="14"/>
-      <c r="C300" s="45" t="s">
+      <c r="C300" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D300" s="45">
+      <c r="D300" s="43">
         <v>3</v>
       </c>
       <c r="E300" s="9">
@@ -18579,8 +18582,8 @@
     <row r="301" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="14"/>
-      <c r="C301" s="45"/>
-      <c r="D301" s="45"/>
+      <c r="C301" s="43"/>
+      <c r="D301" s="43"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="9"/>
@@ -18657,10 +18660,10 @@
       <c r="B303" s="13">
         <v>1.5870104037958981E+18</v>
       </c>
-      <c r="C303" s="46" t="s">
+      <c r="C303" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D303" s="46">
+      <c r="D303" s="42">
         <v>4</v>
       </c>
       <c r="E303" s="8"/>
@@ -18706,8 +18709,8 @@
     <row r="304" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="13"/>
-      <c r="C304" s="46"/>
-      <c r="D304" s="46"/>
+      <c r="C304" s="42"/>
+      <c r="D304" s="42"/>
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
       <c r="G304" s="8"/>
@@ -18743,10 +18746,10 @@
     <row r="305" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="14"/>
-      <c r="C305" s="45" t="s">
+      <c r="C305" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D305" s="45">
+      <c r="D305" s="43">
         <v>5</v>
       </c>
       <c r="E305" s="9">
@@ -18808,8 +18811,8 @@
     <row r="306" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="14"/>
-      <c r="C306" s="45"/>
-      <c r="D306" s="45"/>
+      <c r="C306" s="43"/>
+      <c r="D306" s="43"/>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="9"/>
@@ -18886,10 +18889,10 @@
       <c r="B308" s="13">
         <v>1.5869980139726029E+18</v>
       </c>
-      <c r="C308" s="46" t="s">
+      <c r="C308" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D308" s="46">
+      <c r="D308" s="42">
         <v>2</v>
       </c>
       <c r="E308" s="8"/>
@@ -18933,8 +18936,8 @@
     <row r="309" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="13"/>
-      <c r="C309" s="46"/>
-      <c r="D309" s="46"/>
+      <c r="C309" s="42"/>
+      <c r="D309" s="42"/>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
       <c r="G309" s="8"/>
@@ -18970,10 +18973,10 @@
     <row r="310" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="14"/>
-      <c r="C310" s="45" t="s">
+      <c r="C310" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D310" s="45">
+      <c r="D310" s="43">
         <v>2</v>
       </c>
       <c r="E310" s="9">
@@ -19029,8 +19032,8 @@
     <row r="311" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="14"/>
-      <c r="C311" s="45"/>
-      <c r="D311" s="45"/>
+      <c r="C311" s="43"/>
+      <c r="D311" s="43"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
       <c r="G311" s="9"/>
@@ -19107,10 +19110,10 @@
       <c r="B313" s="13">
         <v>1.5869473518764401E+18</v>
       </c>
-      <c r="C313" s="46" t="s">
+      <c r="C313" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D313" s="46">
+      <c r="D313" s="42">
         <v>3</v>
       </c>
       <c r="E313" s="8"/>
@@ -19150,8 +19153,8 @@
     <row r="314" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="13"/>
-      <c r="C314" s="46"/>
-      <c r="D314" s="46"/>
+      <c r="C314" s="42"/>
+      <c r="D314" s="42"/>
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
@@ -19187,10 +19190,10 @@
     <row r="315" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="14"/>
-      <c r="C315" s="45" t="s">
+      <c r="C315" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D315" s="45">
+      <c r="D315" s="43">
         <v>3</v>
       </c>
       <c r="E315" s="9">
@@ -19242,8 +19245,8 @@
     <row r="316" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="14"/>
-      <c r="C316" s="45"/>
-      <c r="D316" s="45"/>
+      <c r="C316" s="43"/>
+      <c r="D316" s="43"/>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
       <c r="G316" s="9"/>
@@ -19320,10 +19323,10 @@
       <c r="B318" s="13">
         <v>1.5868103690621089E+18</v>
       </c>
-      <c r="C318" s="46" t="s">
+      <c r="C318" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D318" s="46">
+      <c r="D318" s="42">
         <v>3</v>
       </c>
       <c r="E318" s="8"/>
@@ -19367,8 +19370,8 @@
     <row r="319" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="13"/>
-      <c r="C319" s="46"/>
-      <c r="D319" s="46"/>
+      <c r="C319" s="42"/>
+      <c r="D319" s="42"/>
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
       <c r="G319" s="8"/>
@@ -19404,10 +19407,10 @@
     <row r="320" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="14"/>
-      <c r="C320" s="45" t="s">
+      <c r="C320" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D320" s="45">
+      <c r="D320" s="43">
         <v>1</v>
       </c>
       <c r="E320" s="9">
@@ -19459,8 +19462,8 @@
     <row r="321" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="14"/>
-      <c r="C321" s="45"/>
-      <c r="D321" s="45"/>
+      <c r="C321" s="43"/>
+      <c r="D321" s="43"/>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
       <c r="G321" s="9"/>
@@ -19537,10 +19540,10 @@
       <c r="B323" s="13">
         <v>1.586784252485673E+18</v>
       </c>
-      <c r="C323" s="46" t="s">
+      <c r="C323" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D323" s="46">
+      <c r="D323" s="42">
         <v>0</v>
       </c>
       <c r="E323" s="8"/>
@@ -19578,8 +19581,8 @@
     <row r="324" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="13"/>
-      <c r="C324" s="46"/>
-      <c r="D324" s="46"/>
+      <c r="C324" s="42"/>
+      <c r="D324" s="42"/>
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
       <c r="G324" s="8"/>
@@ -19615,10 +19618,10 @@
     <row r="325" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="14"/>
-      <c r="C325" s="45" t="s">
+      <c r="C325" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D325" s="45">
+      <c r="D325" s="43">
         <v>1</v>
       </c>
       <c r="E325" s="9"/>
@@ -19666,8 +19669,8 @@
     <row r="326" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="14"/>
-      <c r="C326" s="45"/>
-      <c r="D326" s="45"/>
+      <c r="C326" s="43"/>
+      <c r="D326" s="43"/>
       <c r="E326" s="9"/>
       <c r="F326" s="9"/>
       <c r="G326" s="9"/>
@@ -19744,10 +19747,10 @@
       <c r="B328" s="13">
         <v>1.5867537123321039E+18</v>
       </c>
-      <c r="C328" s="46" t="s">
+      <c r="C328" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D328" s="46">
+      <c r="D328" s="42">
         <v>0</v>
       </c>
       <c r="E328" s="8"/>
@@ -19785,8 +19788,8 @@
     <row r="329" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="13"/>
-      <c r="C329" s="46"/>
-      <c r="D329" s="46"/>
+      <c r="C329" s="42"/>
+      <c r="D329" s="42"/>
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
       <c r="G329" s="8"/>
@@ -19822,10 +19825,10 @@
     <row r="330" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="14"/>
-      <c r="C330" s="45" t="s">
+      <c r="C330" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D330" s="45">
+      <c r="D330" s="43">
         <v>1</v>
       </c>
       <c r="E330" s="9"/>
@@ -19873,8 +19876,8 @@
     <row r="331" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="14"/>
-      <c r="C331" s="45"/>
-      <c r="D331" s="45"/>
+      <c r="C331" s="43"/>
+      <c r="D331" s="43"/>
       <c r="E331" s="9"/>
       <c r="F331" s="9"/>
       <c r="G331" s="9"/>
@@ -19951,10 +19954,10 @@
       <c r="B333" s="13">
         <v>1.5866994722093381E+18</v>
       </c>
-      <c r="C333" s="46" t="s">
+      <c r="C333" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D333" s="46">
+      <c r="D333" s="42">
         <v>1</v>
       </c>
       <c r="E333" s="8"/>
@@ -19994,8 +19997,8 @@
     <row r="334" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="13"/>
-      <c r="C334" s="46"/>
-      <c r="D334" s="46"/>
+      <c r="C334" s="42"/>
+      <c r="D334" s="42"/>
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
       <c r="G334" s="8"/>
@@ -20031,10 +20034,10 @@
     <row r="335" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="14"/>
-      <c r="C335" s="45" t="s">
+      <c r="C335" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D335" s="45">
+      <c r="D335" s="43">
         <v>2</v>
       </c>
       <c r="E335" s="9">
@@ -20086,8 +20089,8 @@
     <row r="336" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="14"/>
-      <c r="C336" s="45"/>
-      <c r="D336" s="45"/>
+      <c r="C336" s="43"/>
+      <c r="D336" s="43"/>
       <c r="E336" s="9"/>
       <c r="F336" s="9"/>
       <c r="G336" s="9"/>
@@ -20164,10 +20167,10 @@
       <c r="B338" s="13">
         <v>1.5863346818631759E+18</v>
       </c>
-      <c r="C338" s="46" t="s">
+      <c r="C338" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D338" s="46">
+      <c r="D338" s="42">
         <v>0</v>
       </c>
       <c r="E338" s="8"/>
@@ -20205,8 +20208,8 @@
     <row r="339" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="13"/>
-      <c r="C339" s="46"/>
-      <c r="D339" s="46"/>
+      <c r="C339" s="42"/>
+      <c r="D339" s="42"/>
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
       <c r="G339" s="8"/>
@@ -20242,10 +20245,10 @@
     <row r="340" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="14"/>
-      <c r="C340" s="45" t="s">
+      <c r="C340" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D340" s="45">
+      <c r="D340" s="43">
         <v>1</v>
       </c>
       <c r="E340" s="9"/>
@@ -20293,8 +20296,8 @@
     <row r="341" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="14"/>
-      <c r="C341" s="45"/>
-      <c r="D341" s="45"/>
+      <c r="C341" s="43"/>
+      <c r="D341" s="43"/>
       <c r="E341" s="9"/>
       <c r="F341" s="9"/>
       <c r="G341" s="9"/>
@@ -20371,10 +20374,10 @@
       <c r="B343" s="13">
         <v>1.586231376063382E+18</v>
       </c>
-      <c r="C343" s="46" t="s">
+      <c r="C343" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D343" s="46">
+      <c r="D343" s="42">
         <v>0</v>
       </c>
       <c r="E343" s="8"/>
@@ -20412,8 +20415,8 @@
     <row r="344" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="13"/>
-      <c r="C344" s="46"/>
-      <c r="D344" s="46"/>
+      <c r="C344" s="42"/>
+      <c r="D344" s="42"/>
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
       <c r="G344" s="8"/>
@@ -20449,10 +20452,10 @@
     <row r="345" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="14"/>
-      <c r="C345" s="45" t="s">
+      <c r="C345" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D345" s="45">
+      <c r="D345" s="43">
         <v>0</v>
       </c>
       <c r="E345" s="9"/>
@@ -20496,8 +20499,8 @@
     <row r="346" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="14"/>
-      <c r="C346" s="45"/>
-      <c r="D346" s="45"/>
+      <c r="C346" s="43"/>
+      <c r="D346" s="43"/>
       <c r="E346" s="9"/>
       <c r="F346" s="9"/>
       <c r="G346" s="9"/>
@@ -20574,10 +20577,10 @@
       <c r="B348" s="13">
         <v>1.5861866098583219E+18</v>
       </c>
-      <c r="C348" s="46" t="s">
+      <c r="C348" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D348" s="46">
+      <c r="D348" s="42">
         <v>2</v>
       </c>
       <c r="E348" s="8"/>
@@ -20619,8 +20622,8 @@
     <row r="349" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="13"/>
-      <c r="C349" s="46"/>
-      <c r="D349" s="46"/>
+      <c r="C349" s="42"/>
+      <c r="D349" s="42"/>
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
       <c r="G349" s="8"/>
@@ -20656,10 +20659,10 @@
     <row r="350" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="14"/>
-      <c r="C350" s="45" t="s">
+      <c r="C350" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D350" s="45">
+      <c r="D350" s="43">
         <v>0</v>
       </c>
       <c r="E350" s="9"/>
@@ -20709,8 +20712,8 @@
     <row r="351" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="14"/>
-      <c r="C351" s="45"/>
-      <c r="D351" s="45"/>
+      <c r="C351" s="43"/>
+      <c r="D351" s="43"/>
       <c r="E351" s="9"/>
       <c r="F351" s="9"/>
       <c r="G351" s="9"/>
@@ -20787,10 +20790,10 @@
       <c r="B353" s="13">
         <v>1.586148140981228E+18</v>
       </c>
-      <c r="C353" s="46" t="s">
+      <c r="C353" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D353" s="46">
+      <c r="D353" s="42">
         <v>0</v>
       </c>
       <c r="E353" s="8"/>
@@ -20828,8 +20831,8 @@
     <row r="354" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="13"/>
-      <c r="C354" s="46"/>
-      <c r="D354" s="46"/>
+      <c r="C354" s="42"/>
+      <c r="D354" s="42"/>
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
       <c r="G354" s="8"/>
@@ -20865,10 +20868,10 @@
     <row r="355" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="14"/>
-      <c r="C355" s="45" t="s">
+      <c r="C355" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D355" s="45">
+      <c r="D355" s="43">
         <v>0</v>
       </c>
       <c r="E355" s="9"/>
@@ -20912,8 +20915,8 @@
     <row r="356" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="14"/>
-      <c r="C356" s="45"/>
-      <c r="D356" s="45"/>
+      <c r="C356" s="43"/>
+      <c r="D356" s="43"/>
       <c r="E356" s="9"/>
       <c r="F356" s="9"/>
       <c r="G356" s="9"/>
@@ -20990,10 +20993,10 @@
       <c r="B358" s="13">
         <v>1.586145823875895E+18</v>
       </c>
-      <c r="C358" s="46" t="s">
+      <c r="C358" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D358" s="46">
+      <c r="D358" s="42">
         <v>1</v>
       </c>
       <c r="E358" s="8"/>
@@ -21033,8 +21036,8 @@
     <row r="359" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="13"/>
-      <c r="C359" s="46"/>
-      <c r="D359" s="46"/>
+      <c r="C359" s="42"/>
+      <c r="D359" s="42"/>
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
       <c r="G359" s="8"/>
@@ -21070,10 +21073,10 @@
     <row r="360" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="14"/>
-      <c r="C360" s="45" t="s">
+      <c r="C360" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D360" s="45">
+      <c r="D360" s="43">
         <v>1</v>
       </c>
       <c r="E360" s="9"/>
@@ -21125,8 +21128,8 @@
     <row r="361" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="14"/>
-      <c r="C361" s="45"/>
-      <c r="D361" s="45"/>
+      <c r="C361" s="43"/>
+      <c r="D361" s="43"/>
       <c r="E361" s="9"/>
       <c r="F361" s="9"/>
       <c r="G361" s="9"/>
@@ -21203,10 +21206,10 @@
       <c r="B363" s="13">
         <v>1.586042915213791E+18</v>
       </c>
-      <c r="C363" s="46" t="s">
+      <c r="C363" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D363" s="46">
+      <c r="D363" s="42">
         <v>2</v>
       </c>
       <c r="E363" s="8"/>
@@ -21248,8 +21251,8 @@
     <row r="364" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="13"/>
-      <c r="C364" s="46"/>
-      <c r="D364" s="46"/>
+      <c r="C364" s="42"/>
+      <c r="D364" s="42"/>
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
       <c r="G364" s="8"/>
@@ -21285,10 +21288,10 @@
     <row r="365" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="14"/>
-      <c r="C365" s="45" t="s">
+      <c r="C365" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D365" s="45">
+      <c r="D365" s="43">
         <v>2</v>
       </c>
       <c r="E365" s="9">
@@ -21338,8 +21341,8 @@
     <row r="366" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="14"/>
-      <c r="C366" s="45"/>
-      <c r="D366" s="45"/>
+      <c r="C366" s="43"/>
+      <c r="D366" s="43"/>
       <c r="E366" s="9"/>
       <c r="F366" s="9"/>
       <c r="G366" s="9"/>
@@ -21416,10 +21419,10 @@
       <c r="B368" s="13">
         <v>1.586024742812778E+18</v>
       </c>
-      <c r="C368" s="46" t="s">
+      <c r="C368" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D368" s="46">
+      <c r="D368" s="42">
         <v>3</v>
       </c>
       <c r="E368" s="8"/>
@@ -21465,8 +21468,8 @@
     <row r="369" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="13"/>
-      <c r="C369" s="46"/>
-      <c r="D369" s="46"/>
+      <c r="C369" s="42"/>
+      <c r="D369" s="42"/>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
       <c r="G369" s="8"/>
@@ -21502,10 +21505,10 @@
     <row r="370" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="14"/>
-      <c r="C370" s="45" t="s">
+      <c r="C370" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D370" s="45">
+      <c r="D370" s="43">
         <v>4</v>
       </c>
       <c r="E370" s="9">
@@ -21557,8 +21560,8 @@
     <row r="371" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="14"/>
-      <c r="C371" s="45"/>
-      <c r="D371" s="45"/>
+      <c r="C371" s="43"/>
+      <c r="D371" s="43"/>
       <c r="E371" s="9"/>
       <c r="F371" s="9"/>
       <c r="G371" s="9"/>
@@ -21635,10 +21638,10 @@
       <c r="B373" s="13">
         <v>1.586009895706452E+18</v>
       </c>
-      <c r="C373" s="46" t="s">
+      <c r="C373" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D373" s="46">
+      <c r="D373" s="42">
         <v>1</v>
       </c>
       <c r="E373" s="8"/>
@@ -21678,8 +21681,8 @@
     <row r="374" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="13"/>
-      <c r="C374" s="46"/>
-      <c r="D374" s="46"/>
+      <c r="C374" s="42"/>
+      <c r="D374" s="42"/>
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
       <c r="G374" s="8"/>
@@ -21715,10 +21718,10 @@
     <row r="375" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="14"/>
-      <c r="C375" s="45" t="s">
+      <c r="C375" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D375" s="45">
+      <c r="D375" s="43">
         <v>2</v>
       </c>
       <c r="E375" s="9">
@@ -21770,8 +21773,8 @@
     <row r="376" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="14"/>
-      <c r="C376" s="45"/>
-      <c r="D376" s="45"/>
+      <c r="C376" s="43"/>
+      <c r="D376" s="43"/>
       <c r="E376" s="9"/>
       <c r="F376" s="9"/>
       <c r="G376" s="9"/>
@@ -21848,10 +21851,10 @@
       <c r="B378" s="13">
         <v>1.5859939938668539E+18</v>
       </c>
-      <c r="C378" s="46" t="s">
+      <c r="C378" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D378" s="46">
+      <c r="D378" s="42">
         <v>1</v>
       </c>
       <c r="E378" s="8"/>
@@ -21891,8 +21894,8 @@
     <row r="379" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="13"/>
-      <c r="C379" s="46"/>
-      <c r="D379" s="46"/>
+      <c r="C379" s="42"/>
+      <c r="D379" s="42"/>
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
       <c r="G379" s="8"/>
@@ -21928,10 +21931,10 @@
     <row r="380" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="14"/>
-      <c r="C380" s="45" t="s">
+      <c r="C380" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D380" s="45">
+      <c r="D380" s="43">
         <v>1</v>
       </c>
       <c r="E380" s="9">
@@ -21981,8 +21984,8 @@
     <row r="381" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="14"/>
-      <c r="C381" s="45"/>
-      <c r="D381" s="45"/>
+      <c r="C381" s="43"/>
+      <c r="D381" s="43"/>
       <c r="E381" s="9"/>
       <c r="F381" s="9"/>
       <c r="G381" s="9"/>
@@ -22059,10 +22062,10 @@
       <c r="B383" s="13">
         <v>1.5859846758642481E+18</v>
       </c>
-      <c r="C383" s="46" t="s">
+      <c r="C383" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D383" s="46">
+      <c r="D383" s="42">
         <v>1</v>
       </c>
       <c r="E383" s="8"/>
@@ -22102,8 +22105,8 @@
     <row r="384" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="13"/>
-      <c r="C384" s="46"/>
-      <c r="D384" s="46"/>
+      <c r="C384" s="42"/>
+      <c r="D384" s="42"/>
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
       <c r="G384" s="8"/>
@@ -22139,10 +22142,10 @@
     <row r="385" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="14"/>
-      <c r="C385" s="45" t="s">
+      <c r="C385" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D385" s="45">
+      <c r="D385" s="43">
         <v>3</v>
       </c>
       <c r="E385" s="9">
@@ -22190,8 +22193,8 @@
     <row r="386" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="14"/>
-      <c r="C386" s="45"/>
-      <c r="D386" s="45"/>
+      <c r="C386" s="43"/>
+      <c r="D386" s="43"/>
       <c r="E386" s="9"/>
       <c r="F386" s="9"/>
       <c r="G386" s="9"/>
@@ -22268,10 +22271,10 @@
       <c r="B388" s="13">
         <v>1.5859294403828239E+18</v>
       </c>
-      <c r="C388" s="46" t="s">
+      <c r="C388" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D388" s="46">
+      <c r="D388" s="42">
         <v>0</v>
       </c>
       <c r="E388" s="8"/>
@@ -22309,8 +22312,8 @@
     <row r="389" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="13"/>
-      <c r="C389" s="46"/>
-      <c r="D389" s="46"/>
+      <c r="C389" s="42"/>
+      <c r="D389" s="42"/>
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
       <c r="G389" s="8"/>
@@ -22346,10 +22349,10 @@
     <row r="390" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="14"/>
-      <c r="C390" s="45" t="s">
+      <c r="C390" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D390" s="45">
+      <c r="D390" s="43">
         <v>1</v>
       </c>
       <c r="E390" s="9"/>
@@ -22397,8 +22400,8 @@
     <row r="391" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="14"/>
-      <c r="C391" s="45"/>
-      <c r="D391" s="45"/>
+      <c r="C391" s="43"/>
+      <c r="D391" s="43"/>
       <c r="E391" s="9"/>
       <c r="F391" s="9"/>
       <c r="G391" s="9"/>
@@ -22475,10 +22478,10 @@
       <c r="B393" s="13">
         <v>1.585916529614283E+18</v>
       </c>
-      <c r="C393" s="46" t="s">
+      <c r="C393" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D393" s="46">
+      <c r="D393" s="42">
         <v>0</v>
       </c>
       <c r="E393" s="8"/>
@@ -22516,8 +22519,8 @@
     <row r="394" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="13"/>
-      <c r="C394" s="46"/>
-      <c r="D394" s="46"/>
+      <c r="C394" s="42"/>
+      <c r="D394" s="42"/>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
@@ -22553,10 +22556,10 @@
     <row r="395" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="14"/>
-      <c r="C395" s="45" t="s">
+      <c r="C395" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D395" s="45">
+      <c r="D395" s="43">
         <v>1</v>
       </c>
       <c r="E395" s="9"/>
@@ -22604,8 +22607,8 @@
     <row r="396" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="14"/>
-      <c r="C396" s="45"/>
-      <c r="D396" s="45"/>
+      <c r="C396" s="43"/>
+      <c r="D396" s="43"/>
       <c r="E396" s="9"/>
       <c r="F396" s="9"/>
       <c r="G396" s="9"/>
@@ -22682,10 +22685,10 @@
       <c r="B398" s="13">
         <v>1.585869194494497E+18</v>
       </c>
-      <c r="C398" s="46" t="s">
+      <c r="C398" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D398" s="46">
+      <c r="D398" s="42">
         <v>0</v>
       </c>
       <c r="E398" s="8"/>
@@ -22723,8 +22726,8 @@
     <row r="399" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="13"/>
-      <c r="C399" s="46"/>
-      <c r="D399" s="46"/>
+      <c r="C399" s="42"/>
+      <c r="D399" s="42"/>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
@@ -22760,10 +22763,10 @@
     <row r="400" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="14"/>
-      <c r="C400" s="45" t="s">
+      <c r="C400" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D400" s="45">
+      <c r="D400" s="43">
         <v>0</v>
       </c>
       <c r="E400" s="9"/>
@@ -22804,8 +22807,8 @@
     <row r="401" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="14"/>
-      <c r="C401" s="45"/>
-      <c r="D401" s="45"/>
+      <c r="C401" s="43"/>
+      <c r="D401" s="43"/>
       <c r="E401" s="9"/>
       <c r="F401" s="9"/>
       <c r="G401" s="9"/>
@@ -22882,10 +22885,10 @@
       <c r="B403" s="13">
         <v>1.585782162821108E+18</v>
       </c>
-      <c r="C403" s="46" t="s">
+      <c r="C403" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D403" s="46">
+      <c r="D403" s="42">
         <v>1</v>
       </c>
       <c r="E403" s="8"/>
@@ -22925,8 +22928,8 @@
     <row r="404" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="13"/>
-      <c r="C404" s="46"/>
-      <c r="D404" s="46"/>
+      <c r="C404" s="42"/>
+      <c r="D404" s="42"/>
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
@@ -22962,10 +22965,10 @@
     <row r="405" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="14"/>
-      <c r="C405" s="45" t="s">
+      <c r="C405" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D405" s="45">
+      <c r="D405" s="43">
         <v>1</v>
       </c>
       <c r="E405" s="9">
@@ -23013,8 +23016,8 @@
     <row r="406" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="14"/>
-      <c r="C406" s="45"/>
-      <c r="D406" s="45"/>
+      <c r="C406" s="43"/>
+      <c r="D406" s="43"/>
       <c r="E406" s="9"/>
       <c r="F406" s="9"/>
       <c r="G406" s="9"/>
@@ -23091,10 +23094,10 @@
       <c r="B408" s="13">
         <v>1.5857793747162519E+18</v>
       </c>
-      <c r="C408" s="46" t="s">
+      <c r="C408" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D408" s="46">
+      <c r="D408" s="42">
         <v>0</v>
       </c>
       <c r="E408" s="8"/>
@@ -23132,8 +23135,8 @@
     <row r="409" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="13"/>
-      <c r="C409" s="46"/>
-      <c r="D409" s="46"/>
+      <c r="C409" s="42"/>
+      <c r="D409" s="42"/>
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
@@ -23169,10 +23172,10 @@
     <row r="410" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="14"/>
-      <c r="C410" s="45" t="s">
+      <c r="C410" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D410" s="45">
+      <c r="D410" s="43">
         <v>1</v>
       </c>
       <c r="E410" s="9"/>
@@ -23220,8 +23223,8 @@
     <row r="411" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="14"/>
-      <c r="C411" s="45"/>
-      <c r="D411" s="45"/>
+      <c r="C411" s="43"/>
+      <c r="D411" s="43"/>
       <c r="E411" s="9"/>
       <c r="F411" s="9"/>
       <c r="G411" s="9"/>
@@ -23298,10 +23301,10 @@
       <c r="B413" s="13">
         <v>1.5857793047426619E+18</v>
       </c>
-      <c r="C413" s="46" t="s">
+      <c r="C413" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D413" s="46">
+      <c r="D413" s="42">
         <v>2</v>
       </c>
       <c r="E413" s="8"/>
@@ -23343,8 +23346,8 @@
     <row r="414" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="13"/>
-      <c r="C414" s="46"/>
-      <c r="D414" s="46"/>
+      <c r="C414" s="42"/>
+      <c r="D414" s="42"/>
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
@@ -23380,10 +23383,10 @@
     <row r="415" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="14"/>
-      <c r="C415" s="45" t="s">
+      <c r="C415" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D415" s="45">
+      <c r="D415" s="43">
         <v>2</v>
       </c>
       <c r="E415" s="9">
@@ -23431,8 +23434,8 @@
     <row r="416" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="14"/>
-      <c r="C416" s="45"/>
-      <c r="D416" s="45"/>
+      <c r="C416" s="43"/>
+      <c r="D416" s="43"/>
       <c r="E416" s="9"/>
       <c r="F416" s="9"/>
       <c r="G416" s="9"/>
@@ -23509,10 +23512,10 @@
       <c r="B418" s="13">
         <v>1.585748722780148E+18</v>
       </c>
-      <c r="C418" s="46" t="s">
+      <c r="C418" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D418" s="46">
+      <c r="D418" s="42">
         <v>2</v>
       </c>
       <c r="E418" s="8"/>
@@ -23554,8 +23557,8 @@
     <row r="419" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="13"/>
-      <c r="C419" s="46"/>
-      <c r="D419" s="46"/>
+      <c r="C419" s="42"/>
+      <c r="D419" s="42"/>
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
@@ -23591,10 +23594,10 @@
     <row r="420" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="14"/>
-      <c r="C420" s="45" t="s">
+      <c r="C420" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D420" s="45">
+      <c r="D420" s="43">
         <v>2</v>
       </c>
       <c r="E420" s="9">
@@ -23644,8 +23647,8 @@
     <row r="421" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="14"/>
-      <c r="C421" s="45"/>
-      <c r="D421" s="45"/>
+      <c r="C421" s="43"/>
+      <c r="D421" s="43"/>
       <c r="E421" s="9"/>
       <c r="F421" s="9"/>
       <c r="G421" s="9"/>
@@ -23722,10 +23725,10 @@
       <c r="B423" s="13">
         <v>1.585690037349364E+18</v>
       </c>
-      <c r="C423" s="46" t="s">
+      <c r="C423" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D423" s="46">
+      <c r="D423" s="42">
         <v>1</v>
       </c>
       <c r="E423" s="8"/>
@@ -23767,8 +23770,8 @@
     <row r="424" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="13"/>
-      <c r="C424" s="46"/>
-      <c r="D424" s="46"/>
+      <c r="C424" s="42"/>
+      <c r="D424" s="42"/>
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
@@ -23804,10 +23807,10 @@
     <row r="425" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="14"/>
-      <c r="C425" s="45" t="s">
+      <c r="C425" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D425" s="45">
+      <c r="D425" s="43">
         <v>3</v>
       </c>
       <c r="E425" s="9">
@@ -23859,8 +23862,8 @@
     <row r="426" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="14"/>
-      <c r="C426" s="45"/>
-      <c r="D426" s="45"/>
+      <c r="C426" s="43"/>
+      <c r="D426" s="43"/>
       <c r="E426" s="9"/>
       <c r="F426" s="9"/>
       <c r="G426" s="9"/>
@@ -23937,10 +23940,10 @@
       <c r="B428" s="13">
         <v>1.58564513303838E+18</v>
       </c>
-      <c r="C428" s="46" t="s">
+      <c r="C428" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D428" s="46">
+      <c r="D428" s="42">
         <v>0</v>
       </c>
       <c r="E428" s="8"/>
@@ -23978,8 +23981,8 @@
     <row r="429" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="13"/>
-      <c r="C429" s="46"/>
-      <c r="D429" s="46"/>
+      <c r="C429" s="42"/>
+      <c r="D429" s="42"/>
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
@@ -24015,10 +24018,10 @@
     <row r="430" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="14"/>
-      <c r="C430" s="45" t="s">
+      <c r="C430" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D430" s="45">
+      <c r="D430" s="43">
         <v>3</v>
       </c>
       <c r="E430" s="9"/>
@@ -24068,8 +24071,8 @@
     <row r="431" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="14"/>
-      <c r="C431" s="45"/>
-      <c r="D431" s="45"/>
+      <c r="C431" s="43"/>
+      <c r="D431" s="43"/>
       <c r="E431" s="9"/>
       <c r="F431" s="9"/>
       <c r="G431" s="9"/>
@@ -24146,10 +24149,10 @@
       <c r="B433" s="13">
         <v>1.5856374939776451E+18</v>
       </c>
-      <c r="C433" s="46" t="s">
+      <c r="C433" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D433" s="46">
+      <c r="D433" s="42">
         <v>0</v>
       </c>
       <c r="E433" s="8"/>
@@ -24187,8 +24190,8 @@
     <row r="434" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="13"/>
-      <c r="C434" s="46"/>
-      <c r="D434" s="46"/>
+      <c r="C434" s="42"/>
+      <c r="D434" s="42"/>
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
       <c r="G434" s="8"/>
@@ -24224,10 +24227,10 @@
     <row r="435" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="14"/>
-      <c r="C435" s="45" t="s">
+      <c r="C435" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D435" s="45">
+      <c r="D435" s="43">
         <v>1</v>
       </c>
       <c r="E435" s="9"/>
@@ -24275,8 +24278,8 @@
     <row r="436" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="14"/>
-      <c r="C436" s="45"/>
-      <c r="D436" s="45"/>
+      <c r="C436" s="43"/>
+      <c r="D436" s="43"/>
       <c r="E436" s="9"/>
       <c r="F436" s="9"/>
       <c r="G436" s="9"/>
@@ -24353,10 +24356,10 @@
       <c r="B438" s="13">
         <v>1.58563243368831E+18</v>
       </c>
-      <c r="C438" s="46" t="s">
+      <c r="C438" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D438" s="46">
+      <c r="D438" s="42">
         <v>2</v>
       </c>
       <c r="E438" s="8"/>
@@ -24398,8 +24401,8 @@
     <row r="439" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="13"/>
-      <c r="C439" s="46"/>
-      <c r="D439" s="46"/>
+      <c r="C439" s="42"/>
+      <c r="D439" s="42"/>
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
@@ -24435,10 +24438,10 @@
     <row r="440" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="14"/>
-      <c r="C440" s="45" t="s">
+      <c r="C440" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D440" s="45">
+      <c r="D440" s="43">
         <v>2</v>
       </c>
       <c r="E440" s="9">
@@ -24492,8 +24495,8 @@
     <row r="441" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="14"/>
-      <c r="C441" s="45"/>
-      <c r="D441" s="45"/>
+      <c r="C441" s="43"/>
+      <c r="D441" s="43"/>
       <c r="E441" s="9"/>
       <c r="F441" s="9"/>
       <c r="G441" s="9"/>
@@ -24570,10 +24573,10 @@
       <c r="B443" s="13">
         <v>1.5856284345579771E+18</v>
       </c>
-      <c r="C443" s="46" t="s">
+      <c r="C443" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D443" s="46">
+      <c r="D443" s="42">
         <v>3</v>
       </c>
       <c r="E443" s="8"/>
@@ -24617,8 +24620,8 @@
     <row r="444" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="13"/>
-      <c r="C444" s="46"/>
-      <c r="D444" s="46"/>
+      <c r="C444" s="42"/>
+      <c r="D444" s="42"/>
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
       <c r="G444" s="8"/>
@@ -24654,10 +24657,10 @@
     <row r="445" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="14"/>
-      <c r="C445" s="45" t="s">
+      <c r="C445" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D445" s="45">
+      <c r="D445" s="43">
         <v>4</v>
       </c>
       <c r="E445" s="9">
@@ -24715,8 +24718,8 @@
     <row r="446" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="14"/>
-      <c r="C446" s="45"/>
-      <c r="D446" s="45"/>
+      <c r="C446" s="43"/>
+      <c r="D446" s="43"/>
       <c r="E446" s="9"/>
       <c r="F446" s="9"/>
       <c r="G446" s="9"/>
@@ -24793,10 +24796,10 @@
       <c r="B448" s="13">
         <v>1.5855493962881469E+18</v>
       </c>
-      <c r="C448" s="46" t="s">
+      <c r="C448" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D448" s="46">
+      <c r="D448" s="42">
         <v>0</v>
       </c>
       <c r="E448" s="8"/>
@@ -24834,8 +24837,8 @@
     <row r="449" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="13"/>
-      <c r="C449" s="46"/>
-      <c r="D449" s="46"/>
+      <c r="C449" s="42"/>
+      <c r="D449" s="42"/>
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
       <c r="G449" s="8"/>
@@ -24871,10 +24874,10 @@
     <row r="450" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="14"/>
-      <c r="C450" s="45" t="s">
+      <c r="C450" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D450" s="45">
+      <c r="D450" s="43">
         <v>0</v>
       </c>
       <c r="E450" s="9"/>
@@ -24918,8 +24921,8 @@
     <row r="451" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="14"/>
-      <c r="C451" s="45"/>
-      <c r="D451" s="45"/>
+      <c r="C451" s="43"/>
+      <c r="D451" s="43"/>
       <c r="E451" s="9"/>
       <c r="F451" s="9"/>
       <c r="G451" s="9"/>
@@ -24996,10 +24999,10 @@
       <c r="B453" s="13">
         <v>1.585530775432098E+18</v>
       </c>
-      <c r="C453" s="46" t="s">
+      <c r="C453" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D453" s="46">
+      <c r="D453" s="42">
         <v>0</v>
       </c>
       <c r="E453" s="8"/>
@@ -25037,8 +25040,8 @@
     <row r="454" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="13"/>
-      <c r="C454" s="46"/>
-      <c r="D454" s="46"/>
+      <c r="C454" s="42"/>
+      <c r="D454" s="42"/>
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
       <c r="G454" s="8"/>
@@ -25074,10 +25077,10 @@
     <row r="455" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="14"/>
-      <c r="C455" s="45" t="s">
+      <c r="C455" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D455" s="45">
+      <c r="D455" s="43">
         <v>0</v>
       </c>
       <c r="E455" s="9"/>
@@ -25121,8 +25124,8 @@
     <row r="456" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="14"/>
-      <c r="C456" s="45"/>
-      <c r="D456" s="45"/>
+      <c r="C456" s="43"/>
+      <c r="D456" s="43"/>
       <c r="E456" s="9"/>
       <c r="F456" s="9"/>
       <c r="G456" s="9"/>
@@ -25199,10 +25202,10 @@
       <c r="B458" s="13">
         <v>1.5855217608370089E+18</v>
       </c>
-      <c r="C458" s="46" t="s">
+      <c r="C458" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D458" s="46">
+      <c r="D458" s="42">
         <v>2</v>
       </c>
       <c r="E458" s="8"/>
@@ -25244,8 +25247,8 @@
     <row r="459" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="13"/>
-      <c r="C459" s="46"/>
-      <c r="D459" s="46"/>
+      <c r="C459" s="42"/>
+      <c r="D459" s="42"/>
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
       <c r="G459" s="8"/>
@@ -25281,10 +25284,10 @@
     <row r="460" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="14"/>
-      <c r="C460" s="45" t="s">
+      <c r="C460" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D460" s="45">
+      <c r="D460" s="43">
         <v>3</v>
       </c>
       <c r="E460" s="9">
@@ -25336,8 +25339,8 @@
     <row r="461" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="14"/>
-      <c r="C461" s="45"/>
-      <c r="D461" s="45"/>
+      <c r="C461" s="43"/>
+      <c r="D461" s="43"/>
       <c r="E461" s="9"/>
       <c r="F461" s="9"/>
       <c r="G461" s="9"/>
@@ -25414,10 +25417,10 @@
       <c r="B463" s="13">
         <v>1.5853908542226099E+18</v>
       </c>
-      <c r="C463" s="46" t="s">
+      <c r="C463" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D463" s="46">
+      <c r="D463" s="42">
         <v>0</v>
       </c>
       <c r="E463" s="8"/>
@@ -25455,8 +25458,8 @@
     <row r="464" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="13"/>
-      <c r="C464" s="46"/>
-      <c r="D464" s="46"/>
+      <c r="C464" s="42"/>
+      <c r="D464" s="42"/>
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
       <c r="G464" s="8"/>
@@ -25492,10 +25495,10 @@
     <row r="465" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="14"/>
-      <c r="C465" s="45" t="s">
+      <c r="C465" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D465" s="45">
+      <c r="D465" s="43">
         <v>1</v>
       </c>
       <c r="E465" s="9"/>
@@ -25543,8 +25546,8 @@
     <row r="466" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="14"/>
-      <c r="C466" s="45"/>
-      <c r="D466" s="45"/>
+      <c r="C466" s="43"/>
+      <c r="D466" s="43"/>
       <c r="E466" s="9"/>
       <c r="F466" s="9"/>
       <c r="G466" s="9"/>
@@ -25621,10 +25624,10 @@
       <c r="B468" s="13">
         <v>1.585378232819454E+18</v>
       </c>
-      <c r="C468" s="46" t="s">
+      <c r="C468" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D468" s="46">
+      <c r="D468" s="42">
         <v>2</v>
       </c>
       <c r="E468" s="8"/>
@@ -25666,8 +25669,8 @@
     <row r="469" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="13"/>
-      <c r="C469" s="46"/>
-      <c r="D469" s="46"/>
+      <c r="C469" s="42"/>
+      <c r="D469" s="42"/>
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
       <c r="G469" s="8"/>
@@ -25703,10 +25706,10 @@
     <row r="470" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="14"/>
-      <c r="C470" s="45" t="s">
+      <c r="C470" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D470" s="45">
+      <c r="D470" s="43">
         <v>2</v>
       </c>
       <c r="E470" s="9">
@@ -25754,8 +25757,8 @@
     <row r="471" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="14"/>
-      <c r="C471" s="45"/>
-      <c r="D471" s="45"/>
+      <c r="C471" s="43"/>
+      <c r="D471" s="43"/>
       <c r="E471" s="9"/>
       <c r="F471" s="9"/>
       <c r="G471" s="9"/>
@@ -25832,10 +25835,10 @@
       <c r="B473" s="13">
         <v>1.585328719215968E+18</v>
       </c>
-      <c r="C473" s="46" t="s">
+      <c r="C473" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D473" s="46">
+      <c r="D473" s="42">
         <v>0</v>
       </c>
       <c r="E473" s="8"/>
@@ -25873,8 +25876,8 @@
     <row r="474" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="13"/>
-      <c r="C474" s="46"/>
-      <c r="D474" s="46"/>
+      <c r="C474" s="42"/>
+      <c r="D474" s="42"/>
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
       <c r="G474" s="8"/>
@@ -25910,10 +25913,10 @@
     <row r="475" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="14"/>
-      <c r="C475" s="45" t="s">
+      <c r="C475" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D475" s="45">
+      <c r="D475" s="43">
         <v>1</v>
       </c>
       <c r="E475" s="9"/>
@@ -25963,8 +25966,8 @@
     <row r="476" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="14"/>
-      <c r="C476" s="45"/>
-      <c r="D476" s="45"/>
+      <c r="C476" s="43"/>
+      <c r="D476" s="43"/>
       <c r="E476" s="9"/>
       <c r="F476" s="9"/>
       <c r="G476" s="9"/>
@@ -26041,10 +26044,10 @@
       <c r="B478" s="13">
         <v>1.5853261629724101E+18</v>
       </c>
-      <c r="C478" s="46" t="s">
+      <c r="C478" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D478" s="46">
+      <c r="D478" s="42">
         <v>0</v>
       </c>
       <c r="E478" s="8"/>
@@ -26082,8 +26085,8 @@
     <row r="479" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="13"/>
-      <c r="C479" s="46"/>
-      <c r="D479" s="46"/>
+      <c r="C479" s="42"/>
+      <c r="D479" s="42"/>
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
       <c r="G479" s="8"/>
@@ -26119,10 +26122,10 @@
     <row r="480" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="14"/>
-      <c r="C480" s="45" t="s">
+      <c r="C480" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D480" s="45">
+      <c r="D480" s="43">
         <v>0</v>
       </c>
       <c r="E480" s="9"/>
@@ -26166,8 +26169,8 @@
     <row r="481" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="14"/>
-      <c r="C481" s="45"/>
-      <c r="D481" s="45"/>
+      <c r="C481" s="43"/>
+      <c r="D481" s="43"/>
       <c r="E481" s="9"/>
       <c r="F481" s="9"/>
       <c r="G481" s="9"/>
@@ -26244,10 +26247,10 @@
       <c r="B483" s="13">
         <v>1.5852879055593841E+18</v>
       </c>
-      <c r="C483" s="46" t="s">
+      <c r="C483" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D483" s="46">
+      <c r="D483" s="42">
         <v>1</v>
       </c>
       <c r="E483" s="8"/>
@@ -26287,8 +26290,8 @@
     <row r="484" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="13"/>
-      <c r="C484" s="46"/>
-      <c r="D484" s="46"/>
+      <c r="C484" s="42"/>
+      <c r="D484" s="42"/>
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
       <c r="G484" s="8"/>
@@ -26324,10 +26327,10 @@
     <row r="485" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="14"/>
-      <c r="C485" s="45" t="s">
+      <c r="C485" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D485" s="45">
+      <c r="D485" s="43">
         <v>1</v>
       </c>
       <c r="E485" s="9">
@@ -26379,8 +26382,8 @@
     <row r="486" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="14"/>
-      <c r="C486" s="45"/>
-      <c r="D486" s="45"/>
+      <c r="C486" s="43"/>
+      <c r="D486" s="43"/>
       <c r="E486" s="9"/>
       <c r="F486" s="9"/>
       <c r="G486" s="9"/>
@@ -26457,10 +26460,10 @@
       <c r="B488" s="13">
         <v>1.585281448503906E+18</v>
       </c>
-      <c r="C488" s="46" t="s">
+      <c r="C488" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D488" s="46">
+      <c r="D488" s="42">
         <v>0</v>
       </c>
       <c r="E488" s="8"/>
@@ -26498,8 +26501,8 @@
     <row r="489" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="13"/>
-      <c r="C489" s="46"/>
-      <c r="D489" s="46"/>
+      <c r="C489" s="42"/>
+      <c r="D489" s="42"/>
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
       <c r="G489" s="8"/>
@@ -26535,10 +26538,10 @@
     <row r="490" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="14"/>
-      <c r="C490" s="45" t="s">
+      <c r="C490" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D490" s="45">
+      <c r="D490" s="43">
         <v>0</v>
       </c>
       <c r="E490" s="9"/>
@@ -26582,8 +26585,8 @@
     <row r="491" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="14"/>
-      <c r="C491" s="45"/>
-      <c r="D491" s="45"/>
+      <c r="C491" s="43"/>
+      <c r="D491" s="43"/>
       <c r="E491" s="9"/>
       <c r="F491" s="9"/>
       <c r="G491" s="9"/>
@@ -26660,10 +26663,10 @@
       <c r="B493" s="13">
         <v>1.58526196912014E+18</v>
       </c>
-      <c r="C493" s="46" t="s">
+      <c r="C493" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D493" s="46">
+      <c r="D493" s="42">
         <v>2</v>
       </c>
       <c r="E493" s="8"/>
@@ -26705,8 +26708,8 @@
     <row r="494" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="13"/>
-      <c r="C494" s="46"/>
-      <c r="D494" s="46"/>
+      <c r="C494" s="42"/>
+      <c r="D494" s="42"/>
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
       <c r="G494" s="8"/>
@@ -26742,10 +26745,10 @@
     <row r="495" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="14"/>
-      <c r="C495" s="45" t="s">
+      <c r="C495" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D495" s="45">
+      <c r="D495" s="43">
         <v>0</v>
       </c>
       <c r="E495" s="9"/>
@@ -26795,8 +26798,8 @@
     <row r="496" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="14"/>
-      <c r="C496" s="45"/>
-      <c r="D496" s="45"/>
+      <c r="C496" s="43"/>
+      <c r="D496" s="43"/>
       <c r="E496" s="9"/>
       <c r="F496" s="9"/>
       <c r="G496" s="9"/>
@@ -26873,10 +26876,10 @@
       <c r="B498" s="13">
         <v>1.5852549264306419E+18</v>
       </c>
-      <c r="C498" s="46" t="s">
+      <c r="C498" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D498" s="46">
+      <c r="D498" s="42">
         <v>0</v>
       </c>
       <c r="E498" s="8"/>
@@ -26914,8 +26917,8 @@
     <row r="499" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="13"/>
-      <c r="C499" s="46"/>
-      <c r="D499" s="46"/>
+      <c r="C499" s="42"/>
+      <c r="D499" s="42"/>
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
       <c r="G499" s="8"/>
@@ -26951,10 +26954,10 @@
     <row r="500" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="14"/>
-      <c r="C500" s="45" t="s">
+      <c r="C500" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D500" s="45">
+      <c r="D500" s="43">
         <v>1</v>
       </c>
       <c r="E500" s="9"/>
@@ -27002,8 +27005,8 @@
     <row r="501" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="14"/>
-      <c r="C501" s="45"/>
-      <c r="D501" s="45"/>
+      <c r="C501" s="43"/>
+      <c r="D501" s="43"/>
       <c r="E501" s="9"/>
       <c r="F501" s="9"/>
       <c r="G501" s="9"/>
@@ -27086,16 +27089,380 @@
     <filterColumn colId="32" showButton="0"/>
   </autoFilter>
   <mergeCells count="406">
-    <mergeCell ref="C498:C499"/>
-    <mergeCell ref="D498:D499"/>
-    <mergeCell ref="C500:C501"/>
-    <mergeCell ref="D500:D501"/>
-    <mergeCell ref="C490:C491"/>
-    <mergeCell ref="D490:D491"/>
-    <mergeCell ref="C493:C494"/>
-    <mergeCell ref="D493:D494"/>
-    <mergeCell ref="C495:C496"/>
-    <mergeCell ref="D495:D496"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="D230:D231"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="D270:D271"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="D290:D291"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="D288:D289"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="D308:D309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="D300:D301"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="D320:D321"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="D323:D324"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="C315:C316"/>
+    <mergeCell ref="D315:D316"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="D318:D319"/>
+    <mergeCell ref="C335:C336"/>
+    <mergeCell ref="D335:D336"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="D338:D339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="D328:D329"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="D330:D331"/>
+    <mergeCell ref="C333:C334"/>
+    <mergeCell ref="D333:D334"/>
+    <mergeCell ref="C350:C351"/>
+    <mergeCell ref="D350:D351"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="D353:D354"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="C345:C346"/>
+    <mergeCell ref="D345:D346"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="D348:D349"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="D365:D366"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="D368:D369"/>
+    <mergeCell ref="C370:C371"/>
+    <mergeCell ref="D370:D371"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="C360:C361"/>
+    <mergeCell ref="D360:D361"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="D363:D364"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="D380:D381"/>
+    <mergeCell ref="C383:C384"/>
+    <mergeCell ref="D383:D384"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="D385:D386"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="D375:D376"/>
+    <mergeCell ref="C378:C379"/>
+    <mergeCell ref="D378:D379"/>
+    <mergeCell ref="C395:C396"/>
+    <mergeCell ref="D395:D396"/>
+    <mergeCell ref="C398:C399"/>
+    <mergeCell ref="D398:D399"/>
+    <mergeCell ref="C400:C401"/>
+    <mergeCell ref="D400:D401"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="D390:D391"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="D410:D411"/>
+    <mergeCell ref="C413:C414"/>
+    <mergeCell ref="D413:D414"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="C405:C406"/>
+    <mergeCell ref="D405:D406"/>
+    <mergeCell ref="C408:C409"/>
+    <mergeCell ref="D408:D409"/>
+    <mergeCell ref="C425:C426"/>
+    <mergeCell ref="D425:D426"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="D428:D429"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="D430:D431"/>
+    <mergeCell ref="C418:C419"/>
+    <mergeCell ref="D418:D419"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="D420:D421"/>
+    <mergeCell ref="C423:C424"/>
+    <mergeCell ref="D423:D424"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="D440:D441"/>
+    <mergeCell ref="C443:C444"/>
+    <mergeCell ref="D443:D444"/>
+    <mergeCell ref="C445:C446"/>
+    <mergeCell ref="D445:D446"/>
+    <mergeCell ref="C433:C434"/>
+    <mergeCell ref="D433:D434"/>
+    <mergeCell ref="C435:C436"/>
+    <mergeCell ref="D435:D436"/>
+    <mergeCell ref="C438:C439"/>
+    <mergeCell ref="D438:D439"/>
+    <mergeCell ref="C455:C456"/>
+    <mergeCell ref="D455:D456"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="D458:D459"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="C448:C449"/>
+    <mergeCell ref="D448:D449"/>
+    <mergeCell ref="C450:C451"/>
+    <mergeCell ref="D450:D451"/>
+    <mergeCell ref="C453:C454"/>
+    <mergeCell ref="D453:D454"/>
     <mergeCell ref="C485:C486"/>
     <mergeCell ref="D485:D486"/>
     <mergeCell ref="C488:C489"/>
@@ -27118,380 +27485,16 @@
     <mergeCell ref="D480:D481"/>
     <mergeCell ref="C483:C484"/>
     <mergeCell ref="D483:D484"/>
-    <mergeCell ref="C455:C456"/>
-    <mergeCell ref="D455:D456"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="D458:D459"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="C448:C449"/>
-    <mergeCell ref="D448:D449"/>
-    <mergeCell ref="C450:C451"/>
-    <mergeCell ref="D450:D451"/>
-    <mergeCell ref="C453:C454"/>
-    <mergeCell ref="D453:D454"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="D440:D441"/>
-    <mergeCell ref="C443:C444"/>
-    <mergeCell ref="D443:D444"/>
-    <mergeCell ref="C445:C446"/>
-    <mergeCell ref="D445:D446"/>
-    <mergeCell ref="C433:C434"/>
-    <mergeCell ref="D433:D434"/>
-    <mergeCell ref="C435:C436"/>
-    <mergeCell ref="D435:D436"/>
-    <mergeCell ref="C438:C439"/>
-    <mergeCell ref="D438:D439"/>
-    <mergeCell ref="C425:C426"/>
-    <mergeCell ref="D425:D426"/>
-    <mergeCell ref="C428:C429"/>
-    <mergeCell ref="D428:D429"/>
-    <mergeCell ref="C430:C431"/>
-    <mergeCell ref="D430:D431"/>
-    <mergeCell ref="C418:C419"/>
-    <mergeCell ref="D418:D419"/>
-    <mergeCell ref="C420:C421"/>
-    <mergeCell ref="D420:D421"/>
-    <mergeCell ref="C423:C424"/>
-    <mergeCell ref="D423:D424"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="D410:D411"/>
-    <mergeCell ref="C413:C414"/>
-    <mergeCell ref="D413:D414"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="C403:C404"/>
-    <mergeCell ref="D403:D404"/>
-    <mergeCell ref="C405:C406"/>
-    <mergeCell ref="D405:D406"/>
-    <mergeCell ref="C408:C409"/>
-    <mergeCell ref="D408:D409"/>
-    <mergeCell ref="C395:C396"/>
-    <mergeCell ref="D395:D396"/>
-    <mergeCell ref="C398:C399"/>
-    <mergeCell ref="D398:D399"/>
-    <mergeCell ref="C400:C401"/>
-    <mergeCell ref="D400:D401"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="D390:D391"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="D380:D381"/>
-    <mergeCell ref="C383:C384"/>
-    <mergeCell ref="D383:D384"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="D385:D386"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="D375:D376"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="D378:D379"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="D365:D366"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="D368:D369"/>
-    <mergeCell ref="C370:C371"/>
-    <mergeCell ref="D370:D371"/>
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="C360:C361"/>
-    <mergeCell ref="D360:D361"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="D363:D364"/>
-    <mergeCell ref="C350:C351"/>
-    <mergeCell ref="D350:D351"/>
-    <mergeCell ref="C353:C354"/>
-    <mergeCell ref="D353:D354"/>
-    <mergeCell ref="C355:C356"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="C345:C346"/>
-    <mergeCell ref="D345:D346"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="D348:D349"/>
-    <mergeCell ref="C335:C336"/>
-    <mergeCell ref="D335:D336"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="D338:D339"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="C328:C329"/>
-    <mergeCell ref="D328:D329"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="D330:D331"/>
-    <mergeCell ref="C333:C334"/>
-    <mergeCell ref="D333:D334"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="D320:D321"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="D323:D324"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="C315:C316"/>
-    <mergeCell ref="D315:D316"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="D318:D319"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="D308:D309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="D300:D301"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="D290:D291"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="D288:D289"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="D270:D271"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="D230:D231"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="Y2:AH2"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C498:C499"/>
+    <mergeCell ref="D498:D499"/>
+    <mergeCell ref="C500:C501"/>
+    <mergeCell ref="D500:D501"/>
+    <mergeCell ref="C490:C491"/>
+    <mergeCell ref="D490:D491"/>
+    <mergeCell ref="C493:C494"/>
+    <mergeCell ref="D493:D494"/>
+    <mergeCell ref="C495:C496"/>
+    <mergeCell ref="D495:D496"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29959,7 +29962,7 @@
   <dimension ref="B2:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29969,12 +29972,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -30007,12 +30010,15 @@
         <f>SUM(GE_TN)</f>
         <v>0</v>
       </c>
+      <c r="J5" s="37" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="41">
         <f>B5/(B5+C5)</f>
         <v>0.6347305389221557</v>
       </c>
@@ -30022,7 +30028,7 @@
       <c r="B8" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="41">
         <f>B5/(B5+D5)</f>
         <v>0.75714285714285712</v>
       </c>
@@ -30031,7 +30037,7 @@
       <c r="B9" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="41">
         <f>(2*C7*C8)/(C7+C8)</f>
         <v>0.69055374592833885</v>
       </c>
@@ -30040,7 +30046,7 @@
       <c r="B10" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="41">
         <f>(B5+E5)/(B5+D5+E5+C5)</f>
         <v>0.52736318407960203</v>
       </c>
@@ -30049,36 +30055,36 @@
       <c r="B11" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="41">
         <f>E5/(E5+C5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="G15" s="53" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="G15" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="L15" s="56" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="L15" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
-      <c r="Q15" s="59" t="s">
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
+      <c r="Q15" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="61"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="63"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
@@ -30200,21 +30206,21 @@
       <c r="B20" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="41">
         <f>B18/(B18+C18)</f>
         <v>0.72289156626506024</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="41">
         <f>G18/(G18+H18)</f>
         <v>0.57894736842105265</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="41">
         <f>L18/(L18+M18)</f>
         <v>0.48148148148148145</v>
       </c>
@@ -30230,21 +30236,21 @@
       <c r="B21" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="41">
         <f>B18/(B18+D18)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="41">
         <f>G18/(G18+I18)</f>
         <v>0.7021276595744681</v>
       </c>
       <c r="L21" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="M21" s="63">
+      <c r="M21" s="41">
         <f>L18/(L18+N18)</f>
         <v>0.72222222222222221</v>
       </c>
@@ -30260,21 +30266,21 @@
       <c r="B22" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="41">
         <f>(2*C20*C21)/(C20+C21)</f>
         <v>0.77419354838709686</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="41">
         <f>(2*H20*H21)/(H20+H21)</f>
         <v>0.63461538461538458</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="M22" s="63">
+      <c r="M22" s="41">
         <f>(2*M20*M21)/(M20+M21)</f>
         <v>0.57777777777777772</v>
       </c>
@@ -30290,21 +30296,21 @@
       <c r="B23" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="41">
         <f>(B18+E18)/(B18+D18+E18+C18)</f>
         <v>0.63157894736842102</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="41">
         <f>(G18+J18)/(G18+I18+J18+H18)</f>
         <v>0.46478873239436619</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="M23" s="63">
+      <c r="M23" s="41">
         <f>(L18+O18)/(L18+N18+O18+M18)</f>
         <v>0.40625</v>
       </c>
@@ -30320,21 +30326,21 @@
       <c r="B24" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="41">
         <f>E18/(E18+C18)</f>
         <v>0</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="41">
         <f>J18/(J18+H18)</f>
         <v>0</v>
       </c>
       <c r="L24" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="M24" s="63">
+      <c r="M24" s="41">
         <f>O18/(O18+M18)</f>
         <v>0</v>
       </c>
@@ -30347,22 +30353,22 @@
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
